--- a/추가피처데이터/투자자별매매동향(수급)/298050.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/298050.xlsx
@@ -1709,43 +1709,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1977,94 +1977,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>144</v>
+        <v>62300</v>
       </c>
       <c r="C6" s="7">
-        <v>123</v>
+        <v>53799</v>
       </c>
       <c r="D6" s="9">
-        <v>21</v>
+        <v>8502</v>
       </c>
       <c r="E6" s="11">
-        <v>248</v>
+        <v>108602</v>
       </c>
       <c r="F6" s="13">
-        <v>367</v>
+        <v>160006</v>
       </c>
       <c r="G6" s="15">
-        <v>-119</v>
+        <v>-51405</v>
       </c>
       <c r="H6" s="17">
-        <v>145</v>
+        <v>63355</v>
       </c>
       <c r="I6" s="19">
+        <v>19230</v>
+      </c>
+      <c r="J6" s="21">
+        <v>44125</v>
+      </c>
+      <c r="K6" s="23">
+        <v>8872</v>
+      </c>
+      <c r="L6" s="25">
+        <v>6621</v>
+      </c>
+      <c r="M6" s="27">
+        <v>2251</v>
+      </c>
+      <c r="N6" s="29">
+        <v>4468</v>
+      </c>
+      <c r="O6" s="31">
+        <v>850</v>
+      </c>
+      <c r="P6" s="33">
+        <v>3618</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>20932</v>
+      </c>
+      <c r="R6" s="37">
+        <v>3753</v>
+      </c>
+      <c r="S6" s="39">
+        <v>17180</v>
+      </c>
+      <c r="T6" s="41">
+        <v>96</v>
+      </c>
+      <c r="U6" s="43">
+        <v>25</v>
+      </c>
+      <c r="V6" s="45">
+        <v>71</v>
+      </c>
+      <c r="W6" s="47">
         <v>44</v>
       </c>
-      <c r="J6" s="21">
-        <v>101</v>
-      </c>
-      <c r="K6" s="23">
-        <v>20</v>
-      </c>
-      <c r="L6" s="25">
-        <v>15</v>
-      </c>
-      <c r="M6" s="27">
-        <v>5</v>
-      </c>
-      <c r="N6" s="29">
-        <v>10</v>
-      </c>
-      <c r="O6" s="31">
-        <v>2</v>
-      </c>
-      <c r="P6" s="33">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="35">
-        <v>48</v>
-      </c>
-      <c r="R6" s="37">
-        <v>9</v>
-      </c>
-      <c r="S6" s="39">
-        <v>39</v>
-      </c>
-      <c r="T6" s="41">
-        <v>0</v>
-      </c>
-      <c r="U6" s="43">
-        <v>0</v>
-      </c>
-      <c r="V6" s="45">
-        <v>0</v>
-      </c>
-      <c r="W6" s="47">
-        <v>0</v>
-      </c>
       <c r="X6" s="49">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y6" s="51">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z6" s="53">
-        <v>34</v>
+        <v>15087</v>
       </c>
       <c r="AA6" s="55">
-        <v>12</v>
+        <v>5339</v>
       </c>
       <c r="AB6" s="57">
-        <v>22</v>
+        <v>9748</v>
       </c>
       <c r="AC6" s="59">
-        <v>32</v>
+        <v>13856</v>
       </c>
       <c r="AD6" s="61">
-        <v>6</v>
+        <v>2617</v>
       </c>
       <c r="AE6" s="63">
-        <v>26</v>
+        <v>11238</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -2076,16 +2076,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>4</v>
+        <v>1657</v>
       </c>
       <c r="AJ6" s="73">
-        <v>6</v>
+        <v>2879</v>
       </c>
       <c r="AK6" s="75">
-        <v>-3</v>
+        <v>-1222</v>
       </c>
       <c r="AL6" s="77">
-        <v>540</v>
+        <v>235914</v>
       </c>
     </row>
     <row r="7">
@@ -2093,94 +2093,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>115</v>
+        <v>48205</v>
       </c>
       <c r="C7" s="7">
+        <v>58823</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-10618</v>
+      </c>
+      <c r="E7" s="11">
+        <v>158590</v>
+      </c>
+      <c r="F7" s="13">
+        <v>157658</v>
+      </c>
+      <c r="G7" s="15">
+        <v>932</v>
+      </c>
+      <c r="H7" s="17">
+        <v>32129</v>
+      </c>
+      <c r="I7" s="19">
+        <v>22091</v>
+      </c>
+      <c r="J7" s="21">
+        <v>10038</v>
+      </c>
+      <c r="K7" s="23">
+        <v>7992</v>
+      </c>
+      <c r="L7" s="25">
+        <v>9099</v>
+      </c>
+      <c r="M7" s="27">
+        <v>-1107</v>
+      </c>
+      <c r="N7" s="29">
+        <v>1715</v>
+      </c>
+      <c r="O7" s="31">
+        <v>1869</v>
+      </c>
+      <c r="P7" s="33">
+        <v>-154</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>8815</v>
+      </c>
+      <c r="R7" s="37">
+        <v>2902</v>
+      </c>
+      <c r="S7" s="39">
+        <v>5912</v>
+      </c>
+      <c r="T7" s="41">
         <v>142</v>
       </c>
-      <c r="D7" s="9">
-        <v>-26</v>
-      </c>
-      <c r="E7" s="11">
-        <v>381</v>
-      </c>
-      <c r="F7" s="13">
-        <v>378</v>
-      </c>
-      <c r="G7" s="15">
-        <v>3</v>
-      </c>
-      <c r="H7" s="17">
-        <v>78</v>
-      </c>
-      <c r="I7" s="19">
-        <v>54</v>
-      </c>
-      <c r="J7" s="21">
-        <v>24</v>
-      </c>
-      <c r="K7" s="23">
-        <v>19</v>
-      </c>
-      <c r="L7" s="25">
-        <v>22</v>
-      </c>
-      <c r="M7" s="27">
-        <v>-3</v>
-      </c>
-      <c r="N7" s="29">
-        <v>4</v>
-      </c>
-      <c r="O7" s="31">
-        <v>5</v>
-      </c>
-      <c r="P7" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="35">
-        <v>22</v>
-      </c>
-      <c r="R7" s="37">
-        <v>7</v>
-      </c>
-      <c r="S7" s="39">
-        <v>14</v>
-      </c>
-      <c r="T7" s="41">
-        <v>0</v>
-      </c>
       <c r="U7" s="43">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="V7" s="45">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="W7" s="47">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="X7" s="49">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="Y7" s="51">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="Z7" s="53">
-        <v>27</v>
+        <v>11405</v>
       </c>
       <c r="AA7" s="55">
-        <v>15</v>
+        <v>6056</v>
       </c>
       <c r="AB7" s="57">
-        <v>13</v>
+        <v>5349</v>
       </c>
       <c r="AC7" s="59">
-        <v>5</v>
+        <v>2007</v>
       </c>
       <c r="AD7" s="61">
-        <v>5</v>
+        <v>2009</v>
       </c>
       <c r="AE7" s="63">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2192,16 +2192,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>4</v>
+        <v>1765</v>
       </c>
       <c r="AJ7" s="73">
-        <v>5</v>
+        <v>2117</v>
       </c>
       <c r="AK7" s="75">
-        <v>-1</v>
+        <v>-352</v>
       </c>
       <c r="AL7" s="77">
-        <v>578</v>
+        <v>240689</v>
       </c>
     </row>
     <row r="8">
@@ -2209,94 +2209,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>162</v>
+        <v>68867</v>
       </c>
       <c r="C8" s="7">
-        <v>140</v>
+        <v>59385</v>
       </c>
       <c r="D8" s="9">
-        <v>22</v>
+        <v>9482</v>
       </c>
       <c r="E8" s="11">
-        <v>346</v>
+        <v>146795</v>
       </c>
       <c r="F8" s="13">
-        <v>390</v>
+        <v>165676</v>
       </c>
       <c r="G8" s="15">
-        <v>-44</v>
+        <v>-18880</v>
       </c>
       <c r="H8" s="17">
-        <v>76</v>
+        <v>32284</v>
       </c>
       <c r="I8" s="19">
-        <v>54</v>
+        <v>22856</v>
       </c>
       <c r="J8" s="21">
-        <v>22</v>
+        <v>9427</v>
       </c>
       <c r="K8" s="23">
-        <v>19</v>
+        <v>7851</v>
       </c>
       <c r="L8" s="25">
-        <v>20</v>
+        <v>8573</v>
       </c>
       <c r="M8" s="27">
-        <v>-2</v>
+        <v>-722</v>
       </c>
       <c r="N8" s="29">
-        <v>3</v>
+        <v>1443</v>
       </c>
       <c r="O8" s="31">
-        <v>2</v>
+        <v>767</v>
       </c>
       <c r="P8" s="33">
-        <v>2</v>
+        <v>676</v>
       </c>
       <c r="Q8" s="35">
-        <v>16</v>
+        <v>6694</v>
       </c>
       <c r="R8" s="37">
-        <v>12</v>
+        <v>5033</v>
       </c>
       <c r="S8" s="39">
-        <v>4</v>
+        <v>1661</v>
       </c>
       <c r="T8" s="41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U8" s="43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V8" s="45">
         <v>0</v>
       </c>
       <c r="W8" s="47">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="X8" s="49">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="51">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z8" s="53">
-        <v>31</v>
+        <v>13224</v>
       </c>
       <c r="AA8" s="55">
-        <v>11</v>
+        <v>4755</v>
       </c>
       <c r="AB8" s="57">
-        <v>20</v>
+        <v>8468</v>
       </c>
       <c r="AC8" s="59">
-        <v>7</v>
+        <v>2961</v>
       </c>
       <c r="AD8" s="61">
-        <v>9</v>
+        <v>3644</v>
       </c>
       <c r="AE8" s="63">
-        <v>-2</v>
+        <v>-683</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2308,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>4</v>
+        <v>1500</v>
       </c>
       <c r="AJ8" s="73">
-        <v>4</v>
+        <v>1529</v>
       </c>
       <c r="AK8" s="75">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="AL8" s="77">
-        <v>588</v>
+        <v>249446</v>
       </c>
     </row>
     <row r="9">
@@ -2325,94 +2325,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>153</v>
+        <v>62597</v>
       </c>
       <c r="C9" s="7">
-        <v>160</v>
+        <v>65598</v>
       </c>
       <c r="D9" s="9">
-        <v>-7</v>
+        <v>-3001</v>
       </c>
       <c r="E9" s="11">
-        <v>340</v>
+        <v>139415</v>
       </c>
       <c r="F9" s="13">
-        <v>405</v>
+        <v>166075</v>
       </c>
       <c r="G9" s="15">
-        <v>-65</v>
+        <v>-26659</v>
       </c>
       <c r="H9" s="17">
-        <v>127</v>
+        <v>51950</v>
       </c>
       <c r="I9" s="19">
-        <v>54</v>
+        <v>21965</v>
       </c>
       <c r="J9" s="21">
-        <v>73</v>
+        <v>29985</v>
       </c>
       <c r="K9" s="23">
-        <v>17</v>
+        <v>7025</v>
       </c>
       <c r="L9" s="25">
-        <v>22</v>
+        <v>8865</v>
       </c>
       <c r="M9" s="27">
-        <v>-4</v>
+        <v>-1841</v>
       </c>
       <c r="N9" s="29">
-        <v>6</v>
+        <v>2426</v>
       </c>
       <c r="O9" s="31">
-        <v>4</v>
+        <v>1630</v>
       </c>
       <c r="P9" s="33">
-        <v>2</v>
+        <v>797</v>
       </c>
       <c r="Q9" s="35">
-        <v>23</v>
+        <v>9535</v>
       </c>
       <c r="R9" s="37">
-        <v>5</v>
+        <v>2024</v>
       </c>
       <c r="S9" s="39">
-        <v>18</v>
+        <v>7510</v>
       </c>
       <c r="T9" s="41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U9" s="43">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="V9" s="45">
-        <v>-1</v>
+        <v>-480</v>
       </c>
       <c r="W9" s="47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X9" s="49">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="51">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z9" s="53">
-        <v>63</v>
+        <v>26076</v>
       </c>
       <c r="AA9" s="55">
-        <v>17</v>
+        <v>6921</v>
       </c>
       <c r="AB9" s="57">
-        <v>46</v>
+        <v>19155</v>
       </c>
       <c r="AC9" s="59">
-        <v>17</v>
+        <v>6818</v>
       </c>
       <c r="AD9" s="61">
-        <v>5</v>
+        <v>1988</v>
       </c>
       <c r="AE9" s="63">
-        <v>12</v>
+        <v>4830</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2424,16 +2424,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>5</v>
+        <v>2026</v>
       </c>
       <c r="AJ9" s="73">
-        <v>6</v>
+        <v>2350</v>
       </c>
       <c r="AK9" s="75">
-        <v>-1</v>
+        <v>-325</v>
       </c>
       <c r="AL9" s="77">
-        <v>624</v>
+        <v>255988</v>
       </c>
     </row>
     <row r="10">
@@ -2441,94 +2441,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>132</v>
+        <v>48501</v>
       </c>
       <c r="C10" s="7">
-        <v>96</v>
+        <v>35097</v>
       </c>
       <c r="D10" s="9">
-        <v>37</v>
+        <v>13404</v>
       </c>
       <c r="E10" s="11">
-        <v>208</v>
+        <v>76277</v>
       </c>
       <c r="F10" s="13">
-        <v>246</v>
+        <v>90245</v>
       </c>
       <c r="G10" s="15">
-        <v>-38</v>
+        <v>-13968</v>
       </c>
       <c r="H10" s="17">
-        <v>50</v>
+        <v>18272</v>
       </c>
       <c r="I10" s="19">
-        <v>48</v>
+        <v>17485</v>
       </c>
       <c r="J10" s="21">
-        <v>2</v>
+        <v>787</v>
       </c>
       <c r="K10" s="23">
-        <v>21</v>
+        <v>7795</v>
       </c>
       <c r="L10" s="25">
-        <v>16</v>
+        <v>5895</v>
       </c>
       <c r="M10" s="27">
-        <v>5</v>
+        <v>1899</v>
       </c>
       <c r="N10" s="29">
-        <v>4</v>
+        <v>1434</v>
       </c>
       <c r="O10" s="31">
+        <v>922</v>
+      </c>
+      <c r="P10" s="33">
+        <v>511</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>2169</v>
+      </c>
+      <c r="R10" s="37">
+        <v>3216</v>
+      </c>
+      <c r="S10" s="39">
+        <v>-1048</v>
+      </c>
+      <c r="T10" s="41">
+        <v>0</v>
+      </c>
+      <c r="U10" s="43">
+        <v>737</v>
+      </c>
+      <c r="V10" s="45">
+        <v>-737</v>
+      </c>
+      <c r="W10" s="47">
+        <v>26</v>
+      </c>
+      <c r="X10" s="49">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="51">
         <v>3</v>
       </c>
-      <c r="P10" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="35">
-        <v>6</v>
-      </c>
-      <c r="R10" s="37">
-        <v>9</v>
-      </c>
-      <c r="S10" s="39">
-        <v>-3</v>
-      </c>
-      <c r="T10" s="41">
-        <v>0</v>
-      </c>
-      <c r="U10" s="43">
-        <v>2</v>
-      </c>
-      <c r="V10" s="45">
-        <v>-2</v>
-      </c>
-      <c r="W10" s="47">
-        <v>0</v>
-      </c>
-      <c r="X10" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="51">
-        <v>0</v>
-      </c>
       <c r="Z10" s="53">
-        <v>15</v>
+        <v>5419</v>
       </c>
       <c r="AA10" s="55">
-        <v>11</v>
+        <v>4110</v>
       </c>
       <c r="AB10" s="57">
-        <v>4</v>
+        <v>1309</v>
       </c>
       <c r="AC10" s="59">
-        <v>4</v>
+        <v>1430</v>
       </c>
       <c r="AD10" s="61">
-        <v>7</v>
+        <v>2581</v>
       </c>
       <c r="AE10" s="63">
-        <v>-3</v>
+        <v>-1151</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2540,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>2</v>
+        <v>590</v>
       </c>
       <c r="AJ10" s="73">
-        <v>2</v>
+        <v>813</v>
       </c>
       <c r="AK10" s="75">
-        <v>-1</v>
+        <v>-223</v>
       </c>
       <c r="AL10" s="77">
-        <v>392</v>
+        <v>143639</v>
       </c>
     </row>
     <row r="11">
@@ -2557,94 +2557,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>88</v>
+        <v>31738</v>
       </c>
       <c r="C11" s="7">
-        <v>112</v>
+        <v>40392</v>
       </c>
       <c r="D11" s="9">
-        <v>-24</v>
+        <v>-8655</v>
       </c>
       <c r="E11" s="11">
-        <v>274</v>
+        <v>98765</v>
       </c>
       <c r="F11" s="13">
-        <v>257</v>
+        <v>92612</v>
       </c>
       <c r="G11" s="15">
-        <v>17</v>
+        <v>6153</v>
       </c>
       <c r="H11" s="17">
-        <v>59</v>
+        <v>21302</v>
       </c>
       <c r="I11" s="19">
-        <v>50</v>
+        <v>17918</v>
       </c>
       <c r="J11" s="21">
-        <v>9</v>
+        <v>3384</v>
       </c>
       <c r="K11" s="23">
-        <v>20</v>
+        <v>7223</v>
       </c>
       <c r="L11" s="25">
-        <v>12</v>
+        <v>4414</v>
       </c>
       <c r="M11" s="27">
-        <v>8</v>
+        <v>2809</v>
       </c>
       <c r="N11" s="29">
-        <v>5</v>
+        <v>1996</v>
       </c>
       <c r="O11" s="31">
-        <v>3</v>
+        <v>1226</v>
       </c>
       <c r="P11" s="33">
-        <v>2</v>
+        <v>770</v>
       </c>
       <c r="Q11" s="35">
-        <v>16</v>
+        <v>5588</v>
       </c>
       <c r="R11" s="37">
+        <v>3828</v>
+      </c>
+      <c r="S11" s="39">
+        <v>1760</v>
+      </c>
+      <c r="T11" s="41">
         <v>11</v>
       </c>
-      <c r="S11" s="39">
-        <v>5</v>
-      </c>
-      <c r="T11" s="41">
-        <v>0</v>
-      </c>
       <c r="U11" s="43">
         <v>0</v>
       </c>
       <c r="V11" s="45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W11" s="47">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="X11" s="49">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="Y11" s="51">
-        <v>0</v>
+        <v>-122</v>
       </c>
       <c r="Z11" s="53">
-        <v>13</v>
+        <v>4584</v>
       </c>
       <c r="AA11" s="55">
-        <v>16</v>
+        <v>5711</v>
       </c>
       <c r="AB11" s="57">
-        <v>-3</v>
+        <v>-1127</v>
       </c>
       <c r="AC11" s="59">
-        <v>5</v>
+        <v>1815</v>
       </c>
       <c r="AD11" s="61">
-        <v>7</v>
+        <v>2532</v>
       </c>
       <c r="AE11" s="63">
-        <v>-2</v>
+        <v>-717</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2656,16 +2656,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>2</v>
+        <v>886</v>
       </c>
       <c r="AJ11" s="73">
-        <v>5</v>
+        <v>1768</v>
       </c>
       <c r="AK11" s="75">
-        <v>-2</v>
+        <v>-882</v>
       </c>
       <c r="AL11" s="77">
-        <v>423</v>
+        <v>152691</v>
       </c>
     </row>
     <row r="12">
@@ -2673,94 +2673,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>210</v>
+        <v>77722</v>
       </c>
       <c r="C12" s="7">
-        <v>173</v>
+        <v>64250</v>
       </c>
       <c r="D12" s="9">
-        <v>38</v>
+        <v>13473</v>
       </c>
       <c r="E12" s="11">
-        <v>502</v>
+        <v>186287</v>
       </c>
       <c r="F12" s="13">
-        <v>553</v>
+        <v>206035</v>
       </c>
       <c r="G12" s="15">
-        <v>-51</v>
+        <v>-19748</v>
       </c>
       <c r="H12" s="17">
-        <v>77</v>
+        <v>28922</v>
       </c>
       <c r="I12" s="19">
-        <v>66</v>
+        <v>23889</v>
       </c>
       <c r="J12" s="21">
-        <v>10</v>
+        <v>5033</v>
       </c>
       <c r="K12" s="23">
-        <v>16</v>
+        <v>5938</v>
       </c>
       <c r="L12" s="25">
-        <v>16</v>
+        <v>5800</v>
       </c>
       <c r="M12" s="27">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N12" s="29">
-        <v>10</v>
+        <v>3662</v>
       </c>
       <c r="O12" s="31">
-        <v>7</v>
+        <v>2366</v>
       </c>
       <c r="P12" s="33">
-        <v>3</v>
+        <v>1296</v>
       </c>
       <c r="Q12" s="35">
-        <v>17</v>
+        <v>6543</v>
       </c>
       <c r="R12" s="37">
-        <v>12</v>
+        <v>4449</v>
       </c>
       <c r="S12" s="39">
-        <v>5</v>
+        <v>2094</v>
       </c>
       <c r="T12" s="41">
-        <v>1</v>
+        <v>481</v>
       </c>
       <c r="U12" s="43">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V12" s="45">
-        <v>1</v>
+        <v>459</v>
       </c>
       <c r="W12" s="47">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="X12" s="49">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="Y12" s="51">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="Z12" s="53">
-        <v>26</v>
+        <v>9855</v>
       </c>
       <c r="AA12" s="55">
-        <v>24</v>
+        <v>8679</v>
       </c>
       <c r="AB12" s="57">
-        <v>2</v>
+        <v>1175</v>
       </c>
       <c r="AC12" s="59">
-        <v>6</v>
+        <v>2379</v>
       </c>
       <c r="AD12" s="61">
-        <v>7</v>
+        <v>2390</v>
       </c>
       <c r="AE12" s="63">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>8</v>
+        <v>3200</v>
       </c>
       <c r="AJ12" s="73">
-        <v>5</v>
+        <v>1958</v>
       </c>
       <c r="AK12" s="75">
-        <v>3</v>
+        <v>1242</v>
       </c>
       <c r="AL12" s="77">
-        <v>797</v>
+        <v>296130</v>
       </c>
     </row>
     <row r="13">
@@ -2789,94 +2789,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>123</v>
+        <v>39538</v>
       </c>
       <c r="C13" s="7">
-        <v>131</v>
+        <v>41890</v>
       </c>
       <c r="D13" s="9">
-        <v>-8</v>
+        <v>-2352</v>
       </c>
       <c r="E13" s="11">
-        <v>288</v>
+        <v>91983</v>
       </c>
       <c r="F13" s="13">
-        <v>245</v>
+        <v>78521</v>
       </c>
       <c r="G13" s="15">
-        <v>43</v>
+        <v>13462</v>
       </c>
       <c r="H13" s="17">
-        <v>22</v>
+        <v>6985</v>
       </c>
       <c r="I13" s="19">
+        <v>18438</v>
+      </c>
+      <c r="J13" s="21">
+        <v>-11453</v>
+      </c>
+      <c r="K13" s="23">
+        <v>3771</v>
+      </c>
+      <c r="L13" s="25">
+        <v>3892</v>
+      </c>
+      <c r="M13" s="27">
+        <v>-121</v>
+      </c>
+      <c r="N13" s="29">
+        <v>309</v>
+      </c>
+      <c r="O13" s="31">
+        <v>935</v>
+      </c>
+      <c r="P13" s="33">
+        <v>-626</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>573</v>
+      </c>
+      <c r="R13" s="37">
+        <v>5876</v>
+      </c>
+      <c r="S13" s="39">
+        <v>-5302</v>
+      </c>
+      <c r="T13" s="41">
+        <v>0</v>
+      </c>
+      <c r="U13" s="43">
+        <v>0</v>
+      </c>
+      <c r="V13" s="45">
+        <v>0</v>
+      </c>
+      <c r="W13" s="47">
         <v>58</v>
       </c>
-      <c r="J13" s="21">
-        <v>-36</v>
-      </c>
-      <c r="K13" s="23">
-        <v>12</v>
-      </c>
-      <c r="L13" s="25">
-        <v>12</v>
-      </c>
-      <c r="M13" s="27">
-        <v>0</v>
-      </c>
-      <c r="N13" s="29">
-        <v>1</v>
-      </c>
-      <c r="O13" s="31">
-        <v>3</v>
-      </c>
-      <c r="P13" s="33">
-        <v>-2</v>
-      </c>
-      <c r="Q13" s="35">
-        <v>2</v>
-      </c>
-      <c r="R13" s="37">
-        <v>19</v>
-      </c>
-      <c r="S13" s="39">
-        <v>-17</v>
-      </c>
-      <c r="T13" s="41">
-        <v>0</v>
-      </c>
-      <c r="U13" s="43">
-        <v>0</v>
-      </c>
-      <c r="V13" s="45">
-        <v>0</v>
-      </c>
-      <c r="W13" s="47">
-        <v>0</v>
-      </c>
       <c r="X13" s="49">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="Y13" s="51">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="Z13" s="53">
-        <v>6</v>
+        <v>1994</v>
       </c>
       <c r="AA13" s="55">
-        <v>9</v>
+        <v>2710</v>
       </c>
       <c r="AB13" s="57">
-        <v>-2</v>
+        <v>-716</v>
       </c>
       <c r="AC13" s="59">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="AD13" s="61">
-        <v>15</v>
+        <v>4898</v>
       </c>
       <c r="AE13" s="63">
-        <v>-14</v>
+        <v>-4618</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2888,16 +2888,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>2</v>
+        <v>615</v>
       </c>
       <c r="AJ13" s="73">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="AK13" s="75">
-        <v>1</v>
+        <v>343</v>
       </c>
       <c r="AL13" s="77">
-        <v>435</v>
+        <v>139121</v>
       </c>
     </row>
     <row r="14">
@@ -2905,94 +2905,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>153</v>
+        <v>58322</v>
       </c>
       <c r="C14" s="7">
-        <v>155</v>
+        <v>58785</v>
       </c>
       <c r="D14" s="9">
-        <v>-2</v>
+        <v>-463</v>
       </c>
       <c r="E14" s="11">
-        <v>363</v>
+        <v>139115</v>
       </c>
       <c r="F14" s="13">
-        <v>342</v>
+        <v>132464</v>
       </c>
       <c r="G14" s="15">
-        <v>21</v>
+        <v>6650</v>
       </c>
       <c r="H14" s="17">
-        <v>45</v>
+        <v>17787</v>
       </c>
       <c r="I14" s="19">
-        <v>64</v>
+        <v>24131</v>
       </c>
       <c r="J14" s="21">
-        <v>-19</v>
+        <v>-6344</v>
       </c>
       <c r="K14" s="23">
-        <v>14</v>
+        <v>5143</v>
       </c>
       <c r="L14" s="25">
-        <v>15</v>
+        <v>5577</v>
       </c>
       <c r="M14" s="27">
-        <v>-1</v>
+        <v>-434</v>
       </c>
       <c r="N14" s="29">
+        <v>1490</v>
+      </c>
+      <c r="O14" s="31">
+        <v>1805</v>
+      </c>
+      <c r="P14" s="33">
+        <v>-315</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>3449</v>
+      </c>
+      <c r="R14" s="37">
+        <v>6924</v>
+      </c>
+      <c r="S14" s="39">
+        <v>-3475</v>
+      </c>
+      <c r="T14" s="41">
+        <v>257</v>
+      </c>
+      <c r="U14" s="43">
+        <v>253</v>
+      </c>
+      <c r="V14" s="45">
         <v>4</v>
       </c>
-      <c r="O14" s="31">
-        <v>5</v>
-      </c>
-      <c r="P14" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="35">
-        <v>8</v>
-      </c>
-      <c r="R14" s="37">
-        <v>18</v>
-      </c>
-      <c r="S14" s="39">
-        <v>-10</v>
-      </c>
-      <c r="T14" s="41">
-        <v>1</v>
-      </c>
-      <c r="U14" s="43">
-        <v>1</v>
-      </c>
-      <c r="V14" s="45">
-        <v>0</v>
-      </c>
       <c r="W14" s="47">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="X14" s="49">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="Y14" s="51">
-        <v>-1</v>
+        <v>-237</v>
       </c>
       <c r="Z14" s="53">
-        <v>13</v>
+        <v>5443</v>
       </c>
       <c r="AA14" s="55">
-        <v>15</v>
+        <v>5340</v>
       </c>
       <c r="AB14" s="57">
-        <v>-2</v>
+        <v>102</v>
       </c>
       <c r="AC14" s="59">
-        <v>6</v>
+        <v>1972</v>
       </c>
       <c r="AD14" s="61">
-        <v>10</v>
+        <v>3963</v>
       </c>
       <c r="AE14" s="63">
-        <v>-4</v>
+        <v>-1990</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>4</v>
+        <v>1520</v>
       </c>
       <c r="AJ14" s="73">
-        <v>3</v>
+        <v>1364</v>
       </c>
       <c r="AK14" s="75">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AL14" s="77">
-        <v>565</v>
+        <v>216744</v>
       </c>
     </row>
     <row r="15">
@@ -3021,94 +3021,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>176</v>
+        <v>73544</v>
       </c>
       <c r="C15" s="7">
-        <v>176</v>
+        <v>73507</v>
       </c>
       <c r="D15" s="9">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E15" s="11">
-        <v>489</v>
+        <v>203220</v>
       </c>
       <c r="F15" s="13">
-        <v>517</v>
+        <v>215509</v>
       </c>
       <c r="G15" s="15">
-        <v>-28</v>
+        <v>-12289</v>
       </c>
       <c r="H15" s="17">
-        <v>72</v>
+        <v>30529</v>
       </c>
       <c r="I15" s="19">
-        <v>43</v>
+        <v>17864</v>
       </c>
       <c r="J15" s="21">
-        <v>29</v>
+        <v>12665</v>
       </c>
       <c r="K15" s="23">
-        <v>13</v>
+        <v>5192</v>
       </c>
       <c r="L15" s="25">
-        <v>18</v>
+        <v>7425</v>
       </c>
       <c r="M15" s="27">
-        <v>-5</v>
+        <v>-2234</v>
       </c>
       <c r="N15" s="29">
-        <v>6</v>
+        <v>2737</v>
       </c>
       <c r="O15" s="31">
-        <v>5</v>
+        <v>1891</v>
       </c>
       <c r="P15" s="33">
-        <v>2</v>
+        <v>846</v>
       </c>
       <c r="Q15" s="35">
-        <v>20</v>
+        <v>8642</v>
       </c>
       <c r="R15" s="37">
-        <v>9</v>
+        <v>3727</v>
       </c>
       <c r="S15" s="39">
-        <v>11</v>
+        <v>4914</v>
       </c>
       <c r="T15" s="41">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="U15" s="43">
         <v>0</v>
       </c>
       <c r="V15" s="45">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="W15" s="47">
-        <v>2</v>
+        <v>732</v>
       </c>
       <c r="X15" s="49">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="Y15" s="51">
-        <v>2</v>
+        <v>674</v>
       </c>
       <c r="Z15" s="53">
-        <v>23</v>
+        <v>9421</v>
       </c>
       <c r="AA15" s="55">
-        <v>7</v>
+        <v>3136</v>
       </c>
       <c r="AB15" s="57">
-        <v>15</v>
+        <v>6284</v>
       </c>
       <c r="AC15" s="59">
-        <v>9</v>
+        <v>3740</v>
       </c>
       <c r="AD15" s="61">
-        <v>4</v>
+        <v>1626</v>
       </c>
       <c r="AE15" s="63">
-        <v>5</v>
+        <v>2114</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>4</v>
+        <v>1597</v>
       </c>
       <c r="AJ15" s="73">
-        <v>5</v>
+        <v>2011</v>
       </c>
       <c r="AK15" s="75">
-        <v>-1</v>
+        <v>-413</v>
       </c>
       <c r="AL15" s="77">
-        <v>742</v>
+        <v>308890</v>
       </c>
     </row>
     <row r="16">
@@ -3137,94 +3137,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>299</v>
+        <v>105098</v>
       </c>
       <c r="C16" s="7">
-        <v>281</v>
+        <v>98796</v>
       </c>
       <c r="D16" s="9">
-        <v>18</v>
+        <v>6303</v>
       </c>
       <c r="E16" s="11">
-        <v>438</v>
+        <v>155934</v>
       </c>
       <c r="F16" s="13">
-        <v>412</v>
+        <v>147615</v>
       </c>
       <c r="G16" s="15">
-        <v>26</v>
+        <v>8319</v>
       </c>
       <c r="H16" s="17">
-        <v>44</v>
+        <v>15798</v>
       </c>
       <c r="I16" s="19">
-        <v>85</v>
+        <v>29606</v>
       </c>
       <c r="J16" s="21">
-        <v>-41</v>
+        <v>-13809</v>
       </c>
       <c r="K16" s="23">
-        <v>17</v>
+        <v>6011</v>
       </c>
       <c r="L16" s="25">
-        <v>22</v>
+        <v>7615</v>
       </c>
       <c r="M16" s="27">
-        <v>-5</v>
+        <v>-1604</v>
       </c>
       <c r="N16" s="29">
-        <v>5</v>
+        <v>1707</v>
       </c>
       <c r="O16" s="31">
-        <v>4</v>
+        <v>1452</v>
       </c>
       <c r="P16" s="33">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="35">
-        <v>10</v>
+        <v>3671</v>
       </c>
       <c r="R16" s="37">
-        <v>24</v>
+        <v>8385</v>
       </c>
       <c r="S16" s="39">
-        <v>-13</v>
+        <v>-4714</v>
       </c>
       <c r="T16" s="41">
-        <v>1</v>
+        <v>479</v>
       </c>
       <c r="U16" s="43">
         <v>0</v>
       </c>
       <c r="V16" s="45">
-        <v>1</v>
+        <v>479</v>
       </c>
       <c r="W16" s="47">
-        <v>1</v>
+        <v>442</v>
       </c>
       <c r="X16" s="49">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Y16" s="51">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="Z16" s="53">
-        <v>5</v>
+        <v>1738</v>
       </c>
       <c r="AA16" s="55">
-        <v>27</v>
+        <v>9467</v>
       </c>
       <c r="AB16" s="57">
-        <v>-23</v>
+        <v>-7729</v>
       </c>
       <c r="AC16" s="59">
-        <v>5</v>
+        <v>1750</v>
       </c>
       <c r="AD16" s="61">
-        <v>7</v>
+        <v>2561</v>
       </c>
       <c r="AE16" s="63">
-        <v>-3</v>
+        <v>-811</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3236,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>5</v>
+        <v>1931</v>
       </c>
       <c r="AJ16" s="73">
-        <v>8</v>
+        <v>2744</v>
       </c>
       <c r="AK16" s="75">
-        <v>-3</v>
+        <v>-814</v>
       </c>
       <c r="AL16" s="77">
-        <v>785</v>
+        <v>278761</v>
       </c>
     </row>
     <row r="17">
@@ -3253,94 +3253,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>117</v>
+        <v>51248</v>
       </c>
       <c r="C17" s="7">
-        <v>160</v>
+        <v>70578</v>
       </c>
       <c r="D17" s="9">
-        <v>-43</v>
+        <v>-19331</v>
       </c>
       <c r="E17" s="11">
-        <v>440</v>
+        <v>193414</v>
       </c>
       <c r="F17" s="13">
-        <v>393</v>
+        <v>172328</v>
       </c>
       <c r="G17" s="15">
-        <v>47</v>
+        <v>21086</v>
       </c>
       <c r="H17" s="17">
-        <v>50</v>
+        <v>21953</v>
       </c>
       <c r="I17" s="19">
-        <v>60</v>
+        <v>26648</v>
       </c>
       <c r="J17" s="21">
-        <v>-9</v>
+        <v>-4695</v>
       </c>
       <c r="K17" s="23">
-        <v>25</v>
+        <v>11076</v>
       </c>
       <c r="L17" s="25">
-        <v>19</v>
+        <v>8320</v>
       </c>
       <c r="M17" s="27">
-        <v>7</v>
+        <v>2756</v>
       </c>
       <c r="N17" s="29">
-        <v>2</v>
+        <v>884</v>
       </c>
       <c r="O17" s="31">
-        <v>4</v>
+        <v>1624</v>
       </c>
       <c r="P17" s="33">
-        <v>-2</v>
+        <v>-740</v>
       </c>
       <c r="Q17" s="35">
-        <v>8</v>
+        <v>3681</v>
       </c>
       <c r="R17" s="37">
-        <v>11</v>
+        <v>5042</v>
       </c>
       <c r="S17" s="39">
-        <v>-3</v>
+        <v>-1361</v>
       </c>
       <c r="T17" s="41">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U17" s="43">
         <v>0</v>
       </c>
       <c r="V17" s="45">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W17" s="47">
         <v>0</v>
       </c>
       <c r="X17" s="49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="51">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="Z17" s="53">
-        <v>13</v>
+        <v>5249</v>
       </c>
       <c r="AA17" s="55">
-        <v>19</v>
+        <v>8347</v>
       </c>
       <c r="AB17" s="57">
-        <v>-6</v>
+        <v>-3098</v>
       </c>
       <c r="AC17" s="59">
-        <v>2</v>
+        <v>984</v>
       </c>
       <c r="AD17" s="61">
-        <v>7</v>
+        <v>3295</v>
       </c>
       <c r="AE17" s="63">
-        <v>-5</v>
+        <v>-2312</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3352,16 +3352,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>11</v>
+        <v>5080</v>
       </c>
       <c r="AJ17" s="73">
-        <v>5</v>
+        <v>2141</v>
       </c>
       <c r="AK17" s="75">
-        <v>6</v>
+        <v>2940</v>
       </c>
       <c r="AL17" s="77">
-        <v>618</v>
+        <v>271695</v>
       </c>
     </row>
     <row r="18">
@@ -3369,58 +3369,58 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>142</v>
+        <v>69199</v>
       </c>
       <c r="C18" s="7">
-        <v>120</v>
+        <v>57886</v>
       </c>
       <c r="D18" s="9">
-        <v>22</v>
+        <v>11313</v>
       </c>
       <c r="E18" s="11">
-        <v>406</v>
+        <v>195675</v>
       </c>
       <c r="F18" s="13">
-        <v>450</v>
+        <v>218263</v>
       </c>
       <c r="G18" s="15">
-        <v>-44</v>
+        <v>-22588</v>
       </c>
       <c r="H18" s="17">
-        <v>71</v>
+        <v>34719</v>
       </c>
       <c r="I18" s="19">
-        <v>41</v>
+        <v>19169</v>
       </c>
       <c r="J18" s="21">
-        <v>31</v>
+        <v>15549</v>
       </c>
       <c r="K18" s="23">
-        <v>22</v>
+        <v>10580</v>
       </c>
       <c r="L18" s="25">
-        <v>12</v>
+        <v>5976</v>
       </c>
       <c r="M18" s="27">
-        <v>10</v>
+        <v>4604</v>
       </c>
       <c r="N18" s="29">
-        <v>4</v>
+        <v>2015</v>
       </c>
       <c r="O18" s="31">
-        <v>4</v>
+        <v>1766</v>
       </c>
       <c r="P18" s="33">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="35">
-        <v>17</v>
+        <v>8163</v>
       </c>
       <c r="R18" s="37">
-        <v>4</v>
+        <v>1992</v>
       </c>
       <c r="S18" s="39">
-        <v>12</v>
+        <v>6171</v>
       </c>
       <c r="T18" s="41">
         <v>0</v>
@@ -3432,31 +3432,31 @@
         <v>0</v>
       </c>
       <c r="W18" s="47">
-        <v>2</v>
+        <v>754</v>
       </c>
       <c r="X18" s="49">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Y18" s="51">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="Z18" s="53">
-        <v>20</v>
+        <v>9948</v>
       </c>
       <c r="AA18" s="55">
-        <v>13</v>
+        <v>6281</v>
       </c>
       <c r="AB18" s="57">
-        <v>7</v>
+        <v>3668</v>
       </c>
       <c r="AC18" s="59">
-        <v>7</v>
+        <v>3258</v>
       </c>
       <c r="AD18" s="61">
-        <v>6</v>
+        <v>3056</v>
       </c>
       <c r="AE18" s="63">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>5</v>
+        <v>2314</v>
       </c>
       <c r="AJ18" s="73">
-        <v>14</v>
+        <v>6588</v>
       </c>
       <c r="AK18" s="75">
-        <v>-9</v>
+        <v>-4274</v>
       </c>
       <c r="AL18" s="77">
-        <v>625</v>
+        <v>301907</v>
       </c>
     </row>
     <row r="19">
@@ -3485,94 +3485,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>100</v>
+        <v>51503</v>
       </c>
       <c r="C19" s="7">
-        <v>191</v>
+        <v>97696</v>
       </c>
       <c r="D19" s="9">
-        <v>-90</v>
+        <v>-46192</v>
       </c>
       <c r="E19" s="11">
-        <v>554</v>
+        <v>282924</v>
       </c>
       <c r="F19" s="13">
-        <v>500</v>
+        <v>256348</v>
       </c>
       <c r="G19" s="15">
-        <v>53</v>
+        <v>26576</v>
       </c>
       <c r="H19" s="17">
-        <v>89</v>
+        <v>45928</v>
       </c>
       <c r="I19" s="19">
-        <v>48</v>
+        <v>24430</v>
       </c>
       <c r="J19" s="21">
-        <v>41</v>
+        <v>21498</v>
       </c>
       <c r="K19" s="23">
-        <v>19</v>
+        <v>9572</v>
       </c>
       <c r="L19" s="25">
-        <v>22</v>
+        <v>11241</v>
       </c>
       <c r="M19" s="27">
-        <v>-3</v>
+        <v>-1669</v>
       </c>
       <c r="N19" s="29">
-        <v>5</v>
+        <v>2345</v>
       </c>
       <c r="O19" s="31">
-        <v>5</v>
+        <v>2571</v>
       </c>
       <c r="P19" s="33">
-        <v>-1</v>
+        <v>-226</v>
       </c>
       <c r="Q19" s="35">
-        <v>8</v>
+        <v>3899</v>
       </c>
       <c r="R19" s="37">
-        <v>5</v>
+        <v>2612</v>
       </c>
       <c r="S19" s="39">
-        <v>2</v>
+        <v>1287</v>
       </c>
       <c r="T19" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="43">
         <v>0</v>
       </c>
       <c r="V19" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X19" s="49">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="Y19" s="51">
-        <v>-1</v>
+        <v>-323</v>
       </c>
       <c r="Z19" s="53">
-        <v>44</v>
+        <v>22855</v>
       </c>
       <c r="AA19" s="55">
-        <v>10</v>
+        <v>5287</v>
       </c>
       <c r="AB19" s="57">
-        <v>34</v>
+        <v>17568</v>
       </c>
       <c r="AC19" s="59">
-        <v>14</v>
+        <v>7247</v>
       </c>
       <c r="AD19" s="61">
-        <v>5</v>
+        <v>2387</v>
       </c>
       <c r="AE19" s="63">
-        <v>9</v>
+        <v>4860</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>4</v>
+        <v>1820</v>
       </c>
       <c r="AJ19" s="73">
-        <v>7</v>
+        <v>3701</v>
       </c>
       <c r="AK19" s="75">
-        <v>-4</v>
+        <v>-1881</v>
       </c>
       <c r="AL19" s="77">
-        <v>747</v>
+        <v>382174</v>
       </c>
     </row>
     <row r="20">
@@ -3601,94 +3601,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>160</v>
+        <v>78866</v>
       </c>
       <c r="C20" s="7">
-        <v>199</v>
+        <v>98401</v>
       </c>
       <c r="D20" s="9">
-        <v>-39</v>
+        <v>-19535</v>
       </c>
       <c r="E20" s="11">
-        <v>546</v>
+        <v>269704</v>
       </c>
       <c r="F20" s="13">
-        <v>536</v>
+        <v>265173</v>
       </c>
       <c r="G20" s="15">
-        <v>10</v>
+        <v>4531</v>
       </c>
       <c r="H20" s="17">
-        <v>67</v>
+        <v>33390</v>
       </c>
       <c r="I20" s="19">
-        <v>37</v>
+        <v>18023</v>
       </c>
       <c r="J20" s="21">
-        <v>30</v>
+        <v>15366</v>
       </c>
       <c r="K20" s="23">
-        <v>16</v>
+        <v>8072</v>
       </c>
       <c r="L20" s="25">
-        <v>13</v>
+        <v>6240</v>
       </c>
       <c r="M20" s="27">
-        <v>4</v>
+        <v>1832</v>
       </c>
       <c r="N20" s="29">
-        <v>4</v>
+        <v>2023</v>
       </c>
       <c r="O20" s="31">
-        <v>2</v>
+        <v>1185</v>
       </c>
       <c r="P20" s="33">
-        <v>2</v>
+        <v>838</v>
       </c>
       <c r="Q20" s="35">
-        <v>10</v>
+        <v>5172</v>
       </c>
       <c r="R20" s="37">
-        <v>3</v>
+        <v>1283</v>
       </c>
       <c r="S20" s="39">
-        <v>8</v>
+        <v>3889</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
       </c>
       <c r="U20" s="43">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="V20" s="45">
-        <v>-1</v>
+        <v>-321</v>
       </c>
       <c r="W20" s="47">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="X20" s="49">
         <v>0</v>
       </c>
       <c r="Y20" s="51">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Z20" s="53">
-        <v>28</v>
+        <v>14018</v>
       </c>
       <c r="AA20" s="55">
-        <v>12</v>
+        <v>6052</v>
       </c>
       <c r="AB20" s="57">
-        <v>16</v>
+        <v>7965</v>
       </c>
       <c r="AC20" s="59">
-        <v>8</v>
+        <v>4057</v>
       </c>
       <c r="AD20" s="61">
-        <v>6</v>
+        <v>2942</v>
       </c>
       <c r="AE20" s="63">
-        <v>2</v>
+        <v>1115</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3700,16 +3700,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>5</v>
+        <v>2374</v>
       </c>
       <c r="AJ20" s="73">
-        <v>6</v>
+        <v>2737</v>
       </c>
       <c r="AK20" s="75">
-        <v>-1</v>
+        <v>-363</v>
       </c>
       <c r="AL20" s="77">
-        <v>777</v>
+        <v>384334</v>
       </c>
     </row>
     <row r="21">
@@ -3717,94 +3717,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>212</v>
+        <v>94264</v>
       </c>
       <c r="C21" s="7">
-        <v>294</v>
+        <v>131286</v>
       </c>
       <c r="D21" s="9">
-        <v>-82</v>
+        <v>-37022</v>
       </c>
       <c r="E21" s="11">
-        <v>578</v>
+        <v>259191</v>
       </c>
       <c r="F21" s="13">
-        <v>518</v>
+        <v>232421</v>
       </c>
       <c r="G21" s="15">
-        <v>60</v>
+        <v>26770</v>
       </c>
       <c r="H21" s="17">
-        <v>65</v>
+        <v>29323</v>
       </c>
       <c r="I21" s="19">
-        <v>44</v>
+        <v>19772</v>
       </c>
       <c r="J21" s="21">
-        <v>21</v>
+        <v>9551</v>
       </c>
       <c r="K21" s="23">
-        <v>19</v>
+        <v>8304</v>
       </c>
       <c r="L21" s="25">
-        <v>19</v>
+        <v>8245</v>
       </c>
       <c r="M21" s="27">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N21" s="29">
-        <v>4</v>
+        <v>1604</v>
       </c>
       <c r="O21" s="31">
-        <v>2</v>
+        <v>661</v>
       </c>
       <c r="P21" s="33">
-        <v>2</v>
+        <v>944</v>
       </c>
       <c r="Q21" s="35">
-        <v>13</v>
+        <v>6057</v>
       </c>
       <c r="R21" s="37">
-        <v>5</v>
+        <v>2368</v>
       </c>
       <c r="S21" s="39">
-        <v>8</v>
+        <v>3689</v>
       </c>
       <c r="T21" s="41">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="U21" s="43">
         <v>0</v>
       </c>
       <c r="V21" s="45">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="W21" s="47">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="X21" s="49">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Y21" s="51">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z21" s="53">
-        <v>20</v>
+        <v>9289</v>
       </c>
       <c r="AA21" s="55">
-        <v>8</v>
+        <v>3543</v>
       </c>
       <c r="AB21" s="57">
-        <v>13</v>
+        <v>5746</v>
       </c>
       <c r="AC21" s="59">
-        <v>8</v>
+        <v>3732</v>
       </c>
       <c r="AD21" s="61">
-        <v>11</v>
+        <v>4917</v>
       </c>
       <c r="AE21" s="63">
-        <v>-3</v>
+        <v>-1186</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>5</v>
+        <v>2179</v>
       </c>
       <c r="AJ21" s="73">
-        <v>3</v>
+        <v>1478</v>
       </c>
       <c r="AK21" s="75">
-        <v>2</v>
+        <v>701</v>
       </c>
       <c r="AL21" s="77">
-        <v>859</v>
+        <v>384957</v>
       </c>
     </row>
     <row r="22">
@@ -3833,58 +3833,58 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>380</v>
+        <v>192028</v>
       </c>
       <c r="C22" s="7">
-        <v>360</v>
+        <v>183472</v>
       </c>
       <c r="D22" s="9">
-        <v>21</v>
+        <v>8556</v>
       </c>
       <c r="E22" s="11">
-        <v>674</v>
+        <v>349646</v>
       </c>
       <c r="F22" s="13">
-        <v>657</v>
+        <v>337522</v>
       </c>
       <c r="G22" s="15">
-        <v>18</v>
+        <v>12123</v>
       </c>
       <c r="H22" s="17">
-        <v>40</v>
+        <v>20692</v>
       </c>
       <c r="I22" s="19">
-        <v>78</v>
+        <v>40968</v>
       </c>
       <c r="J22" s="21">
-        <v>-38</v>
+        <v>-20277</v>
       </c>
       <c r="K22" s="23">
-        <v>15</v>
+        <v>7415</v>
       </c>
       <c r="L22" s="25">
-        <v>18</v>
+        <v>9691</v>
       </c>
       <c r="M22" s="27">
-        <v>-4</v>
+        <v>-2276</v>
       </c>
       <c r="N22" s="29">
-        <v>4</v>
+        <v>1875</v>
       </c>
       <c r="O22" s="31">
-        <v>6</v>
+        <v>2985</v>
       </c>
       <c r="P22" s="33">
-        <v>-2</v>
+        <v>-1110</v>
       </c>
       <c r="Q22" s="35">
-        <v>6</v>
+        <v>3178</v>
       </c>
       <c r="R22" s="37">
-        <v>18</v>
+        <v>9569</v>
       </c>
       <c r="S22" s="39">
-        <v>-12</v>
+        <v>-6391</v>
       </c>
       <c r="T22" s="41">
         <v>0</v>
@@ -3896,31 +3896,31 @@
         <v>0</v>
       </c>
       <c r="W22" s="47">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="X22" s="49">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="Y22" s="51">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Z22" s="53">
-        <v>8</v>
+        <v>4330</v>
       </c>
       <c r="AA22" s="55">
-        <v>28</v>
+        <v>14574</v>
       </c>
       <c r="AB22" s="57">
-        <v>-19</v>
+        <v>-10245</v>
       </c>
       <c r="AC22" s="59">
-        <v>7</v>
+        <v>3631</v>
       </c>
       <c r="AD22" s="61">
-        <v>7</v>
+        <v>3945</v>
       </c>
       <c r="AE22" s="63">
-        <v>-1</v>
+        <v>-314</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3932,16 +3932,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>12</v>
+        <v>6237</v>
       </c>
       <c r="AJ22" s="73">
-        <v>13</v>
+        <v>6639</v>
       </c>
       <c r="AK22" s="75">
-        <v>0</v>
+        <v>-403</v>
       </c>
       <c r="AL22" s="77">
-        <v>1107</v>
+        <v>568602</v>
       </c>
     </row>
     <row r="23">
@@ -3949,58 +3949,58 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>260</v>
+        <v>172209</v>
       </c>
       <c r="C23" s="7">
-        <v>317</v>
+        <v>206558</v>
       </c>
       <c r="D23" s="9">
-        <v>-56</v>
+        <v>-34349</v>
       </c>
       <c r="E23" s="11">
-        <v>1140</v>
+        <v>739617</v>
       </c>
       <c r="F23" s="13">
-        <v>1081</v>
+        <v>705938</v>
       </c>
       <c r="G23" s="15">
-        <v>59</v>
+        <v>33679</v>
       </c>
       <c r="H23" s="17">
-        <v>99</v>
+        <v>64851</v>
       </c>
       <c r="I23" s="19">
-        <v>112</v>
+        <v>71040</v>
       </c>
       <c r="J23" s="21">
-        <v>-13</v>
+        <v>-6189</v>
       </c>
       <c r="K23" s="23">
-        <v>23</v>
+        <v>15396</v>
       </c>
       <c r="L23" s="25">
-        <v>18</v>
+        <v>11820</v>
       </c>
       <c r="M23" s="27">
-        <v>5</v>
+        <v>3576</v>
       </c>
       <c r="N23" s="29">
-        <v>6</v>
+        <v>3963</v>
       </c>
       <c r="O23" s="31">
-        <v>8</v>
+        <v>5320</v>
       </c>
       <c r="P23" s="33">
-        <v>-3</v>
+        <v>-1357</v>
       </c>
       <c r="Q23" s="35">
-        <v>27</v>
+        <v>18299</v>
       </c>
       <c r="R23" s="37">
-        <v>33</v>
+        <v>21572</v>
       </c>
       <c r="S23" s="39">
-        <v>-6</v>
+        <v>-3272</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
@@ -4012,31 +4012,31 @@
         <v>0</v>
       </c>
       <c r="W23" s="47">
-        <v>1</v>
+        <v>743</v>
       </c>
       <c r="X23" s="49">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="Y23" s="51">
-        <v>1</v>
+        <v>564</v>
       </c>
       <c r="Z23" s="53">
-        <v>21</v>
+        <v>13477</v>
       </c>
       <c r="AA23" s="55">
-        <v>28</v>
+        <v>17448</v>
       </c>
       <c r="AB23" s="57">
-        <v>-8</v>
+        <v>-3971</v>
       </c>
       <c r="AC23" s="59">
-        <v>20</v>
+        <v>12972</v>
       </c>
       <c r="AD23" s="61">
-        <v>23</v>
+        <v>14700</v>
       </c>
       <c r="AE23" s="63">
-        <v>-3</v>
+        <v>-1728</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -4048,16 +4048,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>22</v>
+        <v>14235</v>
       </c>
       <c r="AJ23" s="73">
-        <v>12</v>
+        <v>7376</v>
       </c>
       <c r="AK23" s="75">
-        <v>11</v>
+        <v>6858</v>
       </c>
       <c r="AL23" s="77">
-        <v>1522</v>
+        <v>990913</v>
       </c>
     </row>
     <row r="24">
@@ -4065,94 +4065,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>314</v>
+        <v>203519</v>
       </c>
       <c r="C24" s="7">
-        <v>352</v>
+        <v>229706</v>
       </c>
       <c r="D24" s="9">
-        <v>-38</v>
+        <v>-26187</v>
       </c>
       <c r="E24" s="11">
-        <v>1158</v>
+        <v>754542</v>
       </c>
       <c r="F24" s="13">
-        <v>1084</v>
+        <v>704910</v>
       </c>
       <c r="G24" s="15">
-        <v>75</v>
+        <v>49632</v>
       </c>
       <c r="H24" s="17">
-        <v>58</v>
+        <v>37915</v>
       </c>
       <c r="I24" s="19">
-        <v>91</v>
+        <v>59164</v>
       </c>
       <c r="J24" s="21">
-        <v>-33</v>
+        <v>-21249</v>
       </c>
       <c r="K24" s="23">
-        <v>25</v>
+        <v>16124</v>
       </c>
       <c r="L24" s="25">
-        <v>20</v>
+        <v>13198</v>
       </c>
       <c r="M24" s="27">
-        <v>4</v>
+        <v>2926</v>
       </c>
       <c r="N24" s="29">
-        <v>2</v>
+        <v>1042</v>
       </c>
       <c r="O24" s="31">
-        <v>3</v>
+        <v>2041</v>
       </c>
       <c r="P24" s="33">
-        <v>-2</v>
+        <v>-999</v>
       </c>
       <c r="Q24" s="35">
-        <v>10</v>
+        <v>6286</v>
       </c>
       <c r="R24" s="37">
-        <v>22</v>
+        <v>14099</v>
       </c>
       <c r="S24" s="39">
-        <v>-12</v>
+        <v>-7814</v>
       </c>
       <c r="T24" s="41">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U24" s="43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V24" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="47">
-        <v>2</v>
+        <v>1166</v>
       </c>
       <c r="X24" s="49">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Y24" s="51">
-        <v>2</v>
+        <v>1125</v>
       </c>
       <c r="Z24" s="53">
-        <v>13</v>
+        <v>8306</v>
       </c>
       <c r="AA24" s="55">
-        <v>31</v>
+        <v>20371</v>
       </c>
       <c r="AB24" s="57">
-        <v>-19</v>
+        <v>-12065</v>
       </c>
       <c r="AC24" s="59">
-        <v>8</v>
+        <v>4978</v>
       </c>
       <c r="AD24" s="61">
-        <v>15</v>
+        <v>9402</v>
       </c>
       <c r="AE24" s="63">
-        <v>-7</v>
+        <v>-4424</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>11</v>
+        <v>7373</v>
       </c>
       <c r="AJ24" s="73">
-        <v>15</v>
+        <v>9569</v>
       </c>
       <c r="AK24" s="75">
-        <v>-4</v>
+        <v>-2196</v>
       </c>
       <c r="AL24" s="77">
-        <v>1542</v>
+        <v>1003349</v>
       </c>
     </row>
     <row r="25">
@@ -4181,94 +4181,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>333</v>
+        <v>238270</v>
       </c>
       <c r="C25" s="7">
-        <v>420</v>
+        <v>302448</v>
       </c>
       <c r="D25" s="9">
-        <v>-86</v>
+        <v>-64178</v>
       </c>
       <c r="E25" s="11">
-        <v>1266</v>
+        <v>913544</v>
       </c>
       <c r="F25" s="13">
-        <v>1169</v>
+        <v>843972</v>
       </c>
       <c r="G25" s="15">
-        <v>97</v>
+        <v>69572</v>
       </c>
       <c r="H25" s="17">
-        <v>85</v>
+        <v>62598</v>
       </c>
       <c r="I25" s="19">
-        <v>98</v>
+        <v>69658</v>
       </c>
       <c r="J25" s="21">
-        <v>-13</v>
+        <v>-7059</v>
       </c>
       <c r="K25" s="23">
-        <v>20</v>
+        <v>14752</v>
       </c>
       <c r="L25" s="25">
-        <v>17</v>
+        <v>12146</v>
       </c>
       <c r="M25" s="27">
+        <v>2606</v>
+      </c>
+      <c r="N25" s="29">
+        <v>1276</v>
+      </c>
+      <c r="O25" s="31">
+        <v>3679</v>
+      </c>
+      <c r="P25" s="33">
+        <v>-2403</v>
+      </c>
+      <c r="Q25" s="35">
+        <v>9100</v>
+      </c>
+      <c r="R25" s="37">
+        <v>23925</v>
+      </c>
+      <c r="S25" s="39">
+        <v>-14825</v>
+      </c>
+      <c r="T25" s="41">
+        <v>0</v>
+      </c>
+      <c r="U25" s="43">
+        <v>2</v>
+      </c>
+      <c r="V25" s="45">
+        <v>-2</v>
+      </c>
+      <c r="W25" s="47">
         <v>4</v>
       </c>
-      <c r="N25" s="29">
-        <v>2</v>
-      </c>
-      <c r="O25" s="31">
-        <v>5</v>
-      </c>
-      <c r="P25" s="33">
-        <v>-4</v>
-      </c>
-      <c r="Q25" s="35">
-        <v>12</v>
-      </c>
-      <c r="R25" s="37">
-        <v>34</v>
-      </c>
-      <c r="S25" s="39">
-        <v>-22</v>
-      </c>
-      <c r="T25" s="41">
-        <v>0</v>
-      </c>
-      <c r="U25" s="43">
-        <v>0</v>
-      </c>
-      <c r="V25" s="45">
-        <v>0</v>
-      </c>
-      <c r="W25" s="47">
-        <v>0</v>
-      </c>
       <c r="X25" s="49">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="Y25" s="51">
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="Z25" s="53">
-        <v>35</v>
+        <v>26082</v>
       </c>
       <c r="AA25" s="55">
-        <v>26</v>
+        <v>18220</v>
       </c>
       <c r="AB25" s="57">
-        <v>10</v>
+        <v>7862</v>
       </c>
       <c r="AC25" s="59">
-        <v>15</v>
+        <v>11383</v>
       </c>
       <c r="AD25" s="61">
-        <v>16</v>
+        <v>11540</v>
       </c>
       <c r="AE25" s="63">
-        <v>-1</v>
+        <v>-157</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4280,16 +4280,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>10</v>
+        <v>6852</v>
       </c>
       <c r="AJ25" s="73">
-        <v>7</v>
+        <v>5187</v>
       </c>
       <c r="AK25" s="75">
-        <v>3</v>
+        <v>1665</v>
       </c>
       <c r="AL25" s="77">
-        <v>1694</v>
+        <v>1221264</v>
       </c>
     </row>
     <row r="26">
@@ -4297,94 +4297,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>574</v>
+        <v>417950</v>
       </c>
       <c r="C26" s="7">
-        <v>478</v>
+        <v>350937</v>
       </c>
       <c r="D26" s="9">
-        <v>96</v>
+        <v>67013</v>
       </c>
       <c r="E26" s="11">
-        <v>1759</v>
+        <v>1280188</v>
       </c>
       <c r="F26" s="13">
-        <v>1821</v>
+        <v>1318512</v>
       </c>
       <c r="G26" s="15">
-        <v>-62</v>
+        <v>-38323</v>
       </c>
       <c r="H26" s="17">
-        <v>94</v>
+        <v>65022</v>
       </c>
       <c r="I26" s="19">
-        <v>121</v>
+        <v>88659</v>
       </c>
       <c r="J26" s="21">
-        <v>-27</v>
+        <v>-23637</v>
       </c>
       <c r="K26" s="23">
-        <v>20</v>
+        <v>14644</v>
       </c>
       <c r="L26" s="25">
-        <v>25</v>
+        <v>18344</v>
       </c>
       <c r="M26" s="27">
-        <v>-5</v>
+        <v>-3700</v>
       </c>
       <c r="N26" s="29">
-        <v>10</v>
+        <v>6343</v>
       </c>
       <c r="O26" s="31">
-        <v>7</v>
+        <v>4729</v>
       </c>
       <c r="P26" s="33">
-        <v>3</v>
+        <v>1615</v>
       </c>
       <c r="Q26" s="35">
-        <v>19</v>
+        <v>13497</v>
       </c>
       <c r="R26" s="37">
-        <v>35</v>
+        <v>25973</v>
       </c>
       <c r="S26" s="39">
-        <v>-16</v>
+        <v>-12475</v>
       </c>
       <c r="T26" s="41">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="U26" s="43">
-        <v>1</v>
+        <v>491</v>
       </c>
       <c r="V26" s="45">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="W26" s="47">
-        <v>2</v>
+        <v>1610</v>
       </c>
       <c r="X26" s="49">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="Y26" s="51">
-        <v>2</v>
+        <v>1521</v>
       </c>
       <c r="Z26" s="53">
-        <v>25</v>
+        <v>16951</v>
       </c>
       <c r="AA26" s="55">
-        <v>24</v>
+        <v>18033</v>
       </c>
       <c r="AB26" s="57">
-        <v>1</v>
+        <v>-1082</v>
       </c>
       <c r="AC26" s="59">
-        <v>17</v>
+        <v>11756</v>
       </c>
       <c r="AD26" s="61">
-        <v>30</v>
+        <v>21000</v>
       </c>
       <c r="AE26" s="63">
-        <v>-12</v>
+        <v>-9244</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4396,16 +4396,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>13</v>
+        <v>9129</v>
       </c>
       <c r="AJ26" s="73">
-        <v>19</v>
+        <v>14181</v>
       </c>
       <c r="AK26" s="75">
-        <v>-7</v>
+        <v>-5052</v>
       </c>
       <c r="AL26" s="77">
-        <v>2440</v>
+        <v>1772289</v>
       </c>
     </row>
     <row r="27">
@@ -4413,94 +4413,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>366</v>
+        <v>209150</v>
       </c>
       <c r="C27" s="7">
-        <v>336</v>
+        <v>193098</v>
       </c>
       <c r="D27" s="9">
-        <v>30</v>
+        <v>16053</v>
       </c>
       <c r="E27" s="11">
-        <v>1216</v>
+        <v>700988</v>
       </c>
       <c r="F27" s="13">
-        <v>1251</v>
+        <v>721196</v>
       </c>
       <c r="G27" s="15">
-        <v>-36</v>
+        <v>-20209</v>
       </c>
       <c r="H27" s="17">
-        <v>134</v>
+        <v>77465</v>
       </c>
       <c r="I27" s="19">
-        <v>131</v>
+        <v>74783</v>
       </c>
       <c r="J27" s="21">
-        <v>3</v>
+        <v>2682</v>
       </c>
       <c r="K27" s="23">
-        <v>42</v>
+        <v>23794</v>
       </c>
       <c r="L27" s="25">
-        <v>33</v>
+        <v>18845</v>
       </c>
       <c r="M27" s="27">
-        <v>9</v>
+        <v>4949</v>
       </c>
       <c r="N27" s="29">
-        <v>10</v>
+        <v>5903</v>
       </c>
       <c r="O27" s="31">
-        <v>7</v>
+        <v>4130</v>
       </c>
       <c r="P27" s="33">
-        <v>3</v>
+        <v>1772</v>
       </c>
       <c r="Q27" s="35">
-        <v>29</v>
+        <v>17045</v>
       </c>
       <c r="R27" s="37">
-        <v>25</v>
+        <v>14337</v>
       </c>
       <c r="S27" s="39">
-        <v>4</v>
+        <v>2709</v>
       </c>
       <c r="T27" s="41">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U27" s="43">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="V27" s="45">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="W27" s="47">
-        <v>3</v>
+        <v>1943</v>
       </c>
       <c r="X27" s="49">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="Y27" s="51">
-        <v>3</v>
+        <v>1820</v>
       </c>
       <c r="Z27" s="53">
-        <v>19</v>
+        <v>10826</v>
       </c>
       <c r="AA27" s="55">
-        <v>38</v>
+        <v>21544</v>
       </c>
       <c r="AB27" s="57">
-        <v>-19</v>
+        <v>-10718</v>
       </c>
       <c r="AC27" s="59">
-        <v>31</v>
+        <v>17754</v>
       </c>
       <c r="AD27" s="61">
-        <v>28</v>
+        <v>15600</v>
       </c>
       <c r="AE27" s="63">
-        <v>3</v>
+        <v>2154</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4512,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>13</v>
+        <v>7536</v>
       </c>
       <c r="AJ27" s="73">
-        <v>11</v>
+        <v>6061</v>
       </c>
       <c r="AK27" s="75">
-        <v>3</v>
+        <v>1474</v>
       </c>
       <c r="AL27" s="77">
-        <v>1729</v>
+        <v>995138</v>
       </c>
     </row>
     <row r="28">
@@ -4529,94 +4529,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>596</v>
+        <v>331591</v>
       </c>
       <c r="C28" s="7">
-        <v>552</v>
+        <v>311661</v>
       </c>
       <c r="D28" s="9">
-        <v>44</v>
+        <v>19930</v>
       </c>
       <c r="E28" s="11">
-        <v>2288</v>
+        <v>1296324</v>
       </c>
       <c r="F28" s="13">
-        <v>2334</v>
+        <v>1312060</v>
       </c>
       <c r="G28" s="15">
-        <v>-46</v>
+        <v>-15736</v>
       </c>
       <c r="H28" s="17">
-        <v>153</v>
+        <v>82925</v>
       </c>
       <c r="I28" s="19">
-        <v>157</v>
+        <v>90684</v>
       </c>
       <c r="J28" s="21">
-        <v>-5</v>
+        <v>-7759</v>
       </c>
       <c r="K28" s="23">
-        <v>23</v>
+        <v>12637</v>
       </c>
       <c r="L28" s="25">
-        <v>24</v>
+        <v>13686</v>
       </c>
       <c r="M28" s="27">
-        <v>-1</v>
+        <v>-1049</v>
       </c>
       <c r="N28" s="29">
-        <v>8</v>
+        <v>4415</v>
       </c>
       <c r="O28" s="31">
-        <v>6</v>
+        <v>3158</v>
       </c>
       <c r="P28" s="33">
-        <v>3</v>
+        <v>1257</v>
       </c>
       <c r="Q28" s="35">
-        <v>31</v>
+        <v>16046</v>
       </c>
       <c r="R28" s="37">
-        <v>31</v>
+        <v>18273</v>
       </c>
       <c r="S28" s="39">
-        <v>-1</v>
+        <v>-2227</v>
       </c>
       <c r="T28" s="41">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U28" s="43">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="V28" s="45">
-        <v>-1</v>
+        <v>-449</v>
       </c>
       <c r="W28" s="47">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="X28" s="49">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="Y28" s="51">
-        <v>0</v>
+        <v>-174</v>
       </c>
       <c r="Z28" s="53">
-        <v>62</v>
+        <v>33531</v>
       </c>
       <c r="AA28" s="55">
-        <v>33</v>
+        <v>19681</v>
       </c>
       <c r="AB28" s="57">
-        <v>29</v>
+        <v>13850</v>
       </c>
       <c r="AC28" s="59">
-        <v>29</v>
+        <v>16180</v>
       </c>
       <c r="AD28" s="61">
-        <v>62</v>
+        <v>35148</v>
       </c>
       <c r="AE28" s="63">
-        <v>-33</v>
+        <v>-18968</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4628,16 +4628,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>35</v>
+        <v>19779</v>
       </c>
       <c r="AJ28" s="73">
-        <v>29</v>
+        <v>16214</v>
       </c>
       <c r="AK28" s="75">
-        <v>7</v>
+        <v>3564</v>
       </c>
       <c r="AL28" s="77">
-        <v>3072</v>
+        <v>1730619</v>
       </c>
     </row>
     <row r="29">
@@ -4645,94 +4645,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>446</v>
+        <v>178034</v>
       </c>
       <c r="C29" s="7">
-        <v>450</v>
+        <v>176678</v>
       </c>
       <c r="D29" s="9">
-        <v>-4</v>
+        <v>1356</v>
       </c>
       <c r="E29" s="11">
-        <v>1232</v>
+        <v>488307</v>
       </c>
       <c r="F29" s="13">
-        <v>1467</v>
+        <v>585804</v>
       </c>
       <c r="G29" s="15">
-        <v>-235</v>
+        <v>-97498</v>
       </c>
       <c r="H29" s="17">
-        <v>319</v>
+        <v>125525</v>
       </c>
       <c r="I29" s="19">
-        <v>94</v>
+        <v>35264</v>
       </c>
       <c r="J29" s="21">
-        <v>226</v>
+        <v>90261</v>
       </c>
       <c r="K29" s="23">
-        <v>19</v>
+        <v>7463</v>
       </c>
       <c r="L29" s="25">
-        <v>21</v>
+        <v>7928</v>
       </c>
       <c r="M29" s="27">
+        <v>-466</v>
+      </c>
+      <c r="N29" s="29">
+        <v>10695</v>
+      </c>
+      <c r="O29" s="31">
+        <v>2016</v>
+      </c>
+      <c r="P29" s="33">
+        <v>8680</v>
+      </c>
+      <c r="Q29" s="35">
+        <v>31817</v>
+      </c>
+      <c r="R29" s="37">
+        <v>13969</v>
+      </c>
+      <c r="S29" s="39">
+        <v>17848</v>
+      </c>
+      <c r="T29" s="41">
+        <v>527</v>
+      </c>
+      <c r="U29" s="43">
+        <v>529</v>
+      </c>
+      <c r="V29" s="45">
         <v>-2</v>
       </c>
-      <c r="N29" s="29">
-        <v>28</v>
-      </c>
-      <c r="O29" s="31">
-        <v>5</v>
-      </c>
-      <c r="P29" s="33">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="35">
-        <v>81</v>
-      </c>
-      <c r="R29" s="37">
-        <v>38</v>
-      </c>
-      <c r="S29" s="39">
-        <v>43</v>
-      </c>
-      <c r="T29" s="41">
-        <v>1</v>
-      </c>
-      <c r="U29" s="43">
-        <v>1</v>
-      </c>
-      <c r="V29" s="45">
-        <v>0</v>
-      </c>
       <c r="W29" s="47">
-        <v>5</v>
+        <v>2049</v>
       </c>
       <c r="X29" s="49">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="Y29" s="51">
-        <v>4</v>
+        <v>1849</v>
       </c>
       <c r="Z29" s="53">
-        <v>154</v>
+        <v>60337</v>
       </c>
       <c r="AA29" s="55">
-        <v>19</v>
+        <v>7291</v>
       </c>
       <c r="AB29" s="57">
-        <v>135</v>
+        <v>53046</v>
       </c>
       <c r="AC29" s="59">
-        <v>32</v>
+        <v>12638</v>
       </c>
       <c r="AD29" s="61">
-        <v>9</v>
+        <v>3331</v>
       </c>
       <c r="AE29" s="63">
-        <v>23</v>
+        <v>9306</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>29</v>
+        <v>11959</v>
       </c>
       <c r="AJ29" s="73">
-        <v>15</v>
+        <v>6079</v>
       </c>
       <c r="AK29" s="75">
-        <v>14</v>
+        <v>5880</v>
       </c>
       <c r="AL29" s="77">
-        <v>2027</v>
+        <v>803825</v>
       </c>
     </row>
     <row r="30">
@@ -4761,94 +4761,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>176</v>
+        <v>66473</v>
       </c>
       <c r="C30" s="7">
-        <v>149</v>
+        <v>56737</v>
       </c>
       <c r="D30" s="9">
-        <v>26</v>
+        <v>9736</v>
       </c>
       <c r="E30" s="11">
-        <v>1002</v>
+        <v>379579</v>
       </c>
       <c r="F30" s="13">
-        <v>1016</v>
+        <v>384455</v>
       </c>
       <c r="G30" s="15">
-        <v>-13</v>
+        <v>-4876</v>
       </c>
       <c r="H30" s="17">
-        <v>89</v>
+        <v>33796</v>
       </c>
       <c r="I30" s="19">
-        <v>86</v>
+        <v>32387</v>
       </c>
       <c r="J30" s="21">
-        <v>4</v>
+        <v>1409</v>
       </c>
       <c r="K30" s="23">
-        <v>10</v>
+        <v>3648</v>
       </c>
       <c r="L30" s="25">
-        <v>5</v>
+        <v>1976</v>
       </c>
       <c r="M30" s="27">
-        <v>4</v>
+        <v>1672</v>
       </c>
       <c r="N30" s="29">
-        <v>6</v>
+        <v>2397</v>
       </c>
       <c r="O30" s="31">
-        <v>4</v>
+        <v>1402</v>
       </c>
       <c r="P30" s="33">
-        <v>3</v>
+        <v>995</v>
       </c>
       <c r="Q30" s="35">
+        <v>6793</v>
+      </c>
+      <c r="R30" s="37">
+        <v>8596</v>
+      </c>
+      <c r="S30" s="39">
+        <v>-1803</v>
+      </c>
+      <c r="T30" s="41">
+        <v>199</v>
+      </c>
+      <c r="U30" s="43">
+        <v>0</v>
+      </c>
+      <c r="V30" s="45">
+        <v>199</v>
+      </c>
+      <c r="W30" s="47">
+        <v>178</v>
+      </c>
+      <c r="X30" s="49">
+        <v>160</v>
+      </c>
+      <c r="Y30" s="51">
         <v>18</v>
       </c>
-      <c r="R30" s="37">
-        <v>23</v>
-      </c>
-      <c r="S30" s="39">
-        <v>-5</v>
-      </c>
-      <c r="T30" s="41">
-        <v>1</v>
-      </c>
-      <c r="U30" s="43">
-        <v>0</v>
-      </c>
-      <c r="V30" s="45">
-        <v>1</v>
-      </c>
-      <c r="W30" s="47">
-        <v>0</v>
-      </c>
-      <c r="X30" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="51">
-        <v>0</v>
-      </c>
       <c r="Z30" s="53">
-        <v>34</v>
+        <v>12733</v>
       </c>
       <c r="AA30" s="55">
-        <v>44</v>
+        <v>16653</v>
       </c>
       <c r="AB30" s="57">
-        <v>-10</v>
+        <v>-3921</v>
       </c>
       <c r="AC30" s="59">
-        <v>21</v>
+        <v>7848</v>
       </c>
       <c r="AD30" s="61">
-        <v>10</v>
+        <v>3599</v>
       </c>
       <c r="AE30" s="63">
-        <v>11</v>
+        <v>4249</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4860,16 +4860,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>5</v>
+        <v>2040</v>
       </c>
       <c r="AJ30" s="73">
-        <v>22</v>
+        <v>8309</v>
       </c>
       <c r="AK30" s="75">
-        <v>-16</v>
+        <v>-6269</v>
       </c>
       <c r="AL30" s="77">
-        <v>1273</v>
+        <v>481888</v>
       </c>
     </row>
     <row r="31">
@@ -4877,94 +4877,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>386</v>
+        <v>156399</v>
       </c>
       <c r="C31" s="7">
-        <v>364</v>
+        <v>147629</v>
       </c>
       <c r="D31" s="9">
-        <v>21</v>
+        <v>8770</v>
       </c>
       <c r="E31" s="11">
-        <v>2081</v>
+        <v>837333</v>
       </c>
       <c r="F31" s="13">
-        <v>2051</v>
+        <v>826019</v>
       </c>
       <c r="G31" s="15">
-        <v>30</v>
+        <v>11314</v>
       </c>
       <c r="H31" s="17">
+        <v>30718</v>
+      </c>
+      <c r="I31" s="19">
+        <v>49398</v>
+      </c>
+      <c r="J31" s="21">
+        <v>-18680</v>
+      </c>
+      <c r="K31" s="23">
+        <v>5091</v>
+      </c>
+      <c r="L31" s="25">
+        <v>3626</v>
+      </c>
+      <c r="M31" s="27">
+        <v>1465</v>
+      </c>
+      <c r="N31" s="29">
+        <v>2622</v>
+      </c>
+      <c r="O31" s="31">
+        <v>3693</v>
+      </c>
+      <c r="P31" s="33">
+        <v>-1071</v>
+      </c>
+      <c r="Q31" s="35">
+        <v>8252</v>
+      </c>
+      <c r="R31" s="37">
+        <v>10509</v>
+      </c>
+      <c r="S31" s="39">
+        <v>-2258</v>
+      </c>
+      <c r="T31" s="41">
+        <v>150</v>
+      </c>
+      <c r="U31" s="43">
+        <v>252</v>
+      </c>
+      <c r="V31" s="45">
+        <v>-101</v>
+      </c>
+      <c r="W31" s="47">
         <v>77</v>
       </c>
-      <c r="I31" s="19">
-        <v>124</v>
-      </c>
-      <c r="J31" s="21">
-        <v>-47</v>
-      </c>
-      <c r="K31" s="23">
-        <v>13</v>
-      </c>
-      <c r="L31" s="25">
-        <v>9</v>
-      </c>
-      <c r="M31" s="27">
-        <v>4</v>
-      </c>
-      <c r="N31" s="29">
-        <v>7</v>
-      </c>
-      <c r="O31" s="31">
-        <v>9</v>
-      </c>
-      <c r="P31" s="33">
-        <v>-3</v>
-      </c>
-      <c r="Q31" s="35">
-        <v>20</v>
-      </c>
-      <c r="R31" s="37">
-        <v>27</v>
-      </c>
-      <c r="S31" s="39">
-        <v>-6</v>
-      </c>
-      <c r="T31" s="41">
-        <v>0</v>
-      </c>
-      <c r="U31" s="43">
-        <v>1</v>
-      </c>
-      <c r="V31" s="45">
-        <v>0</v>
-      </c>
-      <c r="W31" s="47">
-        <v>0</v>
-      </c>
       <c r="X31" s="49">
-        <v>3</v>
+        <v>1189</v>
       </c>
       <c r="Y31" s="51">
-        <v>-3</v>
+        <v>-1112</v>
       </c>
       <c r="Z31" s="53">
-        <v>27</v>
+        <v>10703</v>
       </c>
       <c r="AA31" s="55">
-        <v>48</v>
+        <v>19432</v>
       </c>
       <c r="AB31" s="57">
-        <v>-22</v>
+        <v>-8729</v>
       </c>
       <c r="AC31" s="59">
-        <v>10</v>
+        <v>3824</v>
       </c>
       <c r="AD31" s="61">
-        <v>27</v>
+        <v>10697</v>
       </c>
       <c r="AE31" s="63">
-        <v>-17</v>
+        <v>-6873</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4976,16 +4976,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>27</v>
+        <v>10699</v>
       </c>
       <c r="AJ31" s="73">
-        <v>30</v>
+        <v>12103</v>
       </c>
       <c r="AK31" s="75">
-        <v>-3</v>
+        <v>-1404</v>
       </c>
       <c r="AL31" s="77">
-        <v>2570</v>
+        <v>1035149</v>
       </c>
     </row>
     <row r="32">
@@ -4993,94 +4993,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>710</v>
+        <v>244270</v>
       </c>
       <c r="C32" s="7">
-        <v>728</v>
+        <v>251671</v>
       </c>
       <c r="D32" s="9">
-        <v>-18</v>
+        <v>-7401</v>
       </c>
       <c r="E32" s="11">
-        <v>2924</v>
+        <v>1017661</v>
       </c>
       <c r="F32" s="13">
-        <v>2997</v>
+        <v>1038750</v>
       </c>
       <c r="G32" s="15">
-        <v>-73</v>
+        <v>-21089</v>
       </c>
       <c r="H32" s="17">
-        <v>174</v>
+        <v>58151</v>
       </c>
       <c r="I32" s="19">
-        <v>99</v>
+        <v>35341</v>
       </c>
       <c r="J32" s="21">
-        <v>75</v>
+        <v>22810</v>
       </c>
       <c r="K32" s="23">
-        <v>20</v>
+        <v>7037</v>
       </c>
       <c r="L32" s="25">
-        <v>20</v>
+        <v>7021</v>
       </c>
       <c r="M32" s="27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N32" s="29">
-        <v>6</v>
+        <v>1984</v>
       </c>
       <c r="O32" s="31">
-        <v>3</v>
+        <v>954</v>
       </c>
       <c r="P32" s="33">
-        <v>3</v>
+        <v>1030</v>
       </c>
       <c r="Q32" s="35">
-        <v>50</v>
+        <v>16877</v>
       </c>
       <c r="R32" s="37">
-        <v>31</v>
+        <v>10814</v>
       </c>
       <c r="S32" s="39">
-        <v>20</v>
+        <v>6063</v>
       </c>
       <c r="T32" s="41">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="U32" s="43">
         <v>0</v>
       </c>
       <c r="V32" s="45">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="W32" s="47">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="X32" s="49">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="Y32" s="51">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="Z32" s="53">
-        <v>67</v>
+        <v>21924</v>
       </c>
       <c r="AA32" s="55">
-        <v>31</v>
+        <v>11226</v>
       </c>
       <c r="AB32" s="57">
-        <v>36</v>
+        <v>10698</v>
       </c>
       <c r="AC32" s="59">
-        <v>29</v>
+        <v>9885</v>
       </c>
       <c r="AD32" s="61">
-        <v>14</v>
+        <v>5239</v>
       </c>
       <c r="AE32" s="63">
-        <v>15</v>
+        <v>4646</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5092,16 +5092,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>41</v>
+        <v>14281</v>
       </c>
       <c r="AJ32" s="73">
-        <v>25</v>
+        <v>8601</v>
       </c>
       <c r="AK32" s="75">
-        <v>16</v>
+        <v>5679</v>
       </c>
       <c r="AL32" s="77">
-        <v>3849</v>
+        <v>1334363</v>
       </c>
     </row>
     <row r="33">
@@ -5109,58 +5109,58 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>690</v>
+        <v>200160</v>
       </c>
       <c r="C33" s="7">
-        <v>708</v>
+        <v>206395</v>
       </c>
       <c r="D33" s="9">
-        <v>-18</v>
+        <v>-6235</v>
       </c>
       <c r="E33" s="11">
-        <v>4272</v>
+        <v>1232644</v>
       </c>
       <c r="F33" s="13">
-        <v>4287</v>
+        <v>1236165</v>
       </c>
       <c r="G33" s="15">
-        <v>-15</v>
+        <v>-3521</v>
       </c>
       <c r="H33" s="17">
-        <v>147</v>
+        <v>43023</v>
       </c>
       <c r="I33" s="19">
-        <v>111</v>
+        <v>32648</v>
       </c>
       <c r="J33" s="21">
-        <v>36</v>
+        <v>10375</v>
       </c>
       <c r="K33" s="23">
-        <v>32</v>
+        <v>9430</v>
       </c>
       <c r="L33" s="25">
-        <v>23</v>
+        <v>6769</v>
       </c>
       <c r="M33" s="27">
-        <v>9</v>
+        <v>2662</v>
       </c>
       <c r="N33" s="29">
-        <v>5</v>
+        <v>1539</v>
       </c>
       <c r="O33" s="31">
-        <v>7</v>
+        <v>2051</v>
       </c>
       <c r="P33" s="33">
-        <v>-2</v>
+        <v>-512</v>
       </c>
       <c r="Q33" s="35">
-        <v>28</v>
+        <v>8308</v>
       </c>
       <c r="R33" s="37">
-        <v>40</v>
+        <v>11715</v>
       </c>
       <c r="S33" s="39">
-        <v>-11</v>
+        <v>-3407</v>
       </c>
       <c r="T33" s="41">
         <v>0</v>
@@ -5172,31 +5172,31 @@
         <v>0</v>
       </c>
       <c r="W33" s="47">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="X33" s="49">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="Y33" s="51">
-        <v>-1</v>
+        <v>-324</v>
       </c>
       <c r="Z33" s="53">
-        <v>71</v>
+        <v>21042</v>
       </c>
       <c r="AA33" s="55">
-        <v>30</v>
+        <v>8928</v>
       </c>
       <c r="AB33" s="57">
-        <v>41</v>
+        <v>12113</v>
       </c>
       <c r="AC33" s="59">
-        <v>9</v>
+        <v>2650</v>
       </c>
       <c r="AD33" s="61">
-        <v>9</v>
+        <v>2807</v>
       </c>
       <c r="AE33" s="63">
-        <v>-1</v>
+        <v>-157</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5208,16 +5208,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>47</v>
+        <v>13659</v>
       </c>
       <c r="AJ33" s="73">
-        <v>49</v>
+        <v>14277</v>
       </c>
       <c r="AK33" s="75">
-        <v>-2</v>
+        <v>-618</v>
       </c>
       <c r="AL33" s="77">
-        <v>5156</v>
+        <v>1489486</v>
       </c>
     </row>
     <row r="34">
@@ -5225,58 +5225,58 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>618</v>
+        <v>115224</v>
       </c>
       <c r="C34" s="7">
-        <v>543</v>
+        <v>102092</v>
       </c>
       <c r="D34" s="9">
-        <v>74</v>
+        <v>13133</v>
       </c>
       <c r="E34" s="11">
-        <v>3617</v>
+        <v>698115</v>
       </c>
       <c r="F34" s="13">
-        <v>3746</v>
+        <v>721175</v>
       </c>
       <c r="G34" s="15">
-        <v>-129</v>
+        <v>-23060</v>
       </c>
       <c r="H34" s="17">
-        <v>160</v>
+        <v>28899</v>
       </c>
       <c r="I34" s="19">
-        <v>87</v>
+        <v>16240</v>
       </c>
       <c r="J34" s="21">
-        <v>73</v>
+        <v>12659</v>
       </c>
       <c r="K34" s="23">
-        <v>44</v>
+        <v>8161</v>
       </c>
       <c r="L34" s="25">
-        <v>22</v>
+        <v>4020</v>
       </c>
       <c r="M34" s="27">
-        <v>22</v>
+        <v>4141</v>
       </c>
       <c r="N34" s="29">
-        <v>2</v>
+        <v>390</v>
       </c>
       <c r="O34" s="31">
-        <v>3</v>
+        <v>457</v>
       </c>
       <c r="P34" s="33">
-        <v>-1</v>
+        <v>-67</v>
       </c>
       <c r="Q34" s="35">
-        <v>26</v>
+        <v>4902</v>
       </c>
       <c r="R34" s="37">
-        <v>26</v>
+        <v>4987</v>
       </c>
       <c r="S34" s="39">
-        <v>0</v>
+        <v>-85</v>
       </c>
       <c r="T34" s="41">
         <v>0</v>
@@ -5288,31 +5288,31 @@
         <v>0</v>
       </c>
       <c r="W34" s="47">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="X34" s="49">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y34" s="51">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Z34" s="53">
-        <v>78</v>
+        <v>13409</v>
       </c>
       <c r="AA34" s="55">
-        <v>32</v>
+        <v>6020</v>
       </c>
       <c r="AB34" s="57">
-        <v>46</v>
+        <v>7389</v>
       </c>
       <c r="AC34" s="59">
-        <v>10</v>
+        <v>1999</v>
       </c>
       <c r="AD34" s="61">
-        <v>4</v>
+        <v>714</v>
       </c>
       <c r="AE34" s="63">
-        <v>6</v>
+        <v>1284</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5324,16 +5324,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>54</v>
+        <v>10371</v>
       </c>
       <c r="AJ34" s="73">
-        <v>72</v>
+        <v>13103</v>
       </c>
       <c r="AK34" s="75">
-        <v>-18</v>
+        <v>-2732</v>
       </c>
       <c r="AL34" s="77">
-        <v>4449</v>
+        <v>852610</v>
       </c>
     </row>
     <row r="35">
@@ -5341,58 +5341,58 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>172</v>
+        <v>25644</v>
       </c>
       <c r="C35" s="7">
-        <v>135</v>
+        <v>20047</v>
       </c>
       <c r="D35" s="9">
-        <v>37</v>
+        <v>5597</v>
       </c>
       <c r="E35" s="11">
-        <v>1041</v>
+        <v>155090</v>
       </c>
       <c r="F35" s="13">
-        <v>1038</v>
+        <v>154799</v>
       </c>
       <c r="G35" s="15">
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="H35" s="17">
-        <v>32</v>
+        <v>4748</v>
       </c>
       <c r="I35" s="19">
-        <v>54</v>
+        <v>7929</v>
       </c>
       <c r="J35" s="21">
-        <v>-22</v>
+        <v>-3181</v>
       </c>
       <c r="K35" s="23">
-        <v>10</v>
+        <v>1536</v>
       </c>
       <c r="L35" s="25">
-        <v>7</v>
+        <v>978</v>
       </c>
       <c r="M35" s="27">
-        <v>4</v>
+        <v>558</v>
       </c>
       <c r="N35" s="29">
-        <v>3</v>
+        <v>509</v>
       </c>
       <c r="O35" s="31">
-        <v>5</v>
+        <v>778</v>
       </c>
       <c r="P35" s="33">
-        <v>-2</v>
+        <v>-269</v>
       </c>
       <c r="Q35" s="35">
-        <v>12</v>
+        <v>1759</v>
       </c>
       <c r="R35" s="37">
-        <v>12</v>
+        <v>1795</v>
       </c>
       <c r="S35" s="39">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="T35" s="41">
         <v>0</v>
@@ -5404,31 +5404,31 @@
         <v>0</v>
       </c>
       <c r="W35" s="47">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X35" s="49">
         <v>0</v>
       </c>
       <c r="Y35" s="51">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Z35" s="53">
-        <v>5</v>
+        <v>773</v>
       </c>
       <c r="AA35" s="55">
-        <v>29</v>
+        <v>4283</v>
       </c>
       <c r="AB35" s="57">
-        <v>-24</v>
+        <v>-3509</v>
       </c>
       <c r="AC35" s="59">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="AD35" s="61">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="AE35" s="63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5440,16 +5440,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>23</v>
+        <v>3483</v>
       </c>
       <c r="AJ35" s="73">
-        <v>42</v>
+        <v>6191</v>
       </c>
       <c r="AK35" s="75">
-        <v>-18</v>
+        <v>-2707</v>
       </c>
       <c r="AL35" s="77">
-        <v>1268</v>
+        <v>188965</v>
       </c>
     </row>
     <row r="36">
@@ -5457,58 +5457,58 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>192</v>
+        <v>28075</v>
       </c>
       <c r="C36" s="7">
-        <v>164</v>
+        <v>23958</v>
       </c>
       <c r="D36" s="9">
-        <v>28</v>
+        <v>4117</v>
       </c>
       <c r="E36" s="11">
-        <v>1063</v>
+        <v>154988</v>
       </c>
       <c r="F36" s="13">
-        <v>1052</v>
+        <v>153323</v>
       </c>
       <c r="G36" s="15">
-        <v>11</v>
+        <v>1665</v>
       </c>
       <c r="H36" s="17">
-        <v>40</v>
+        <v>5827</v>
       </c>
       <c r="I36" s="19">
-        <v>41</v>
+        <v>6008</v>
       </c>
       <c r="J36" s="21">
-        <v>-1</v>
+        <v>-182</v>
       </c>
       <c r="K36" s="23">
-        <v>10</v>
+        <v>1461</v>
       </c>
       <c r="L36" s="25">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="M36" s="27">
-        <v>8</v>
+        <v>1175</v>
       </c>
       <c r="N36" s="29">
-        <v>4</v>
+        <v>576</v>
       </c>
       <c r="O36" s="31">
-        <v>4</v>
+        <v>509</v>
       </c>
       <c r="P36" s="33">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q36" s="35">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="R36" s="37">
-        <v>10</v>
+        <v>1390</v>
       </c>
       <c r="S36" s="39">
-        <v>-3</v>
+        <v>-420</v>
       </c>
       <c r="T36" s="41">
         <v>0</v>
@@ -5529,22 +5529,22 @@
         <v>0</v>
       </c>
       <c r="Z36" s="53">
-        <v>19</v>
+        <v>2718</v>
       </c>
       <c r="AA36" s="55">
-        <v>25</v>
+        <v>3648</v>
       </c>
       <c r="AB36" s="57">
-        <v>-6</v>
+        <v>-930</v>
       </c>
       <c r="AC36" s="59">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="AD36" s="61">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="AE36" s="63">
-        <v>-1</v>
+        <v>-74</v>
       </c>
       <c r="AF36" s="65">
         <v>0</v>
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="71">
-        <v>17</v>
+        <v>2534</v>
       </c>
       <c r="AJ36" s="73">
-        <v>56</v>
+        <v>8135</v>
       </c>
       <c r="AK36" s="75">
-        <v>-39</v>
+        <v>-5601</v>
       </c>
       <c r="AL36" s="77">
-        <v>1313</v>
+        <v>191424</v>
       </c>
     </row>
     <row r="37">
@@ -5573,94 +5573,94 @@
         <v>49</v>
       </c>
       <c r="B37" s="5">
-        <v>109</v>
+        <v>14588</v>
       </c>
       <c r="C37" s="7">
-        <v>124</v>
+        <v>16888</v>
       </c>
       <c r="D37" s="9">
-        <v>-15</v>
+        <v>-2300</v>
       </c>
       <c r="E37" s="11">
-        <v>711</v>
+        <v>96638</v>
       </c>
       <c r="F37" s="13">
-        <v>659</v>
+        <v>89526</v>
       </c>
       <c r="G37" s="15">
-        <v>52</v>
+        <v>7112</v>
       </c>
       <c r="H37" s="17">
-        <v>15</v>
+        <v>2121</v>
       </c>
       <c r="I37" s="19">
-        <v>43</v>
+        <v>5852</v>
       </c>
       <c r="J37" s="21">
-        <v>-27</v>
+        <v>-3731</v>
       </c>
       <c r="K37" s="23">
-        <v>5</v>
+        <v>671</v>
       </c>
       <c r="L37" s="25">
+        <v>1137</v>
+      </c>
+      <c r="M37" s="27">
+        <v>-467</v>
+      </c>
+      <c r="N37" s="29">
+        <v>278</v>
+      </c>
+      <c r="O37" s="31">
+        <v>282</v>
+      </c>
+      <c r="P37" s="33">
+        <v>-4</v>
+      </c>
+      <c r="Q37" s="35">
+        <v>950</v>
+      </c>
+      <c r="R37" s="37">
+        <v>2283</v>
+      </c>
+      <c r="S37" s="39">
+        <v>-1333</v>
+      </c>
+      <c r="T37" s="41">
+        <v>0</v>
+      </c>
+      <c r="U37" s="43">
+        <v>106</v>
+      </c>
+      <c r="V37" s="45">
+        <v>-106</v>
+      </c>
+      <c r="W37" s="47">
         <v>8</v>
       </c>
-      <c r="M37" s="27">
-        <v>-4</v>
-      </c>
-      <c r="N37" s="29">
-        <v>2</v>
-      </c>
-      <c r="O37" s="31">
-        <v>2</v>
-      </c>
-      <c r="P37" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="35">
-        <v>7</v>
-      </c>
-      <c r="R37" s="37">
-        <v>17</v>
-      </c>
-      <c r="S37" s="39">
-        <v>-10</v>
-      </c>
-      <c r="T37" s="41">
-        <v>0</v>
-      </c>
-      <c r="U37" s="43">
-        <v>1</v>
-      </c>
-      <c r="V37" s="45">
-        <v>-1</v>
-      </c>
-      <c r="W37" s="47">
-        <v>0</v>
-      </c>
       <c r="X37" s="49">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y37" s="51">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="Z37" s="53">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AA37" s="55">
-        <v>14</v>
+        <v>1897</v>
       </c>
       <c r="AB37" s="57">
-        <v>-13</v>
+        <v>-1836</v>
       </c>
       <c r="AC37" s="59">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="AD37" s="61">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="AE37" s="63">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF37" s="65">
         <v>0</v>
@@ -5672,16 +5672,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="71">
-        <v>10</v>
+        <v>1436</v>
       </c>
       <c r="AJ37" s="73">
-        <v>19</v>
+        <v>2516</v>
       </c>
       <c r="AK37" s="75">
-        <v>-9</v>
+        <v>-1081</v>
       </c>
       <c r="AL37" s="77">
-        <v>845</v>
+        <v>114782</v>
       </c>
     </row>
     <row r="38">
@@ -5689,94 +5689,94 @@
         <v>50</v>
       </c>
       <c r="B38" s="5">
-        <v>339</v>
+        <v>51565</v>
       </c>
       <c r="C38" s="7">
-        <v>312</v>
+        <v>47492</v>
       </c>
       <c r="D38" s="9">
-        <v>27</v>
+        <v>4073</v>
       </c>
       <c r="E38" s="11">
-        <v>2838</v>
+        <v>437321</v>
       </c>
       <c r="F38" s="13">
-        <v>2877</v>
+        <v>443522</v>
       </c>
       <c r="G38" s="15">
-        <v>-39</v>
+        <v>-6202</v>
       </c>
       <c r="H38" s="17">
-        <v>70</v>
+        <v>10896</v>
       </c>
       <c r="I38" s="19">
-        <v>116</v>
+        <v>17614</v>
       </c>
       <c r="J38" s="21">
-        <v>-47</v>
+        <v>-6718</v>
       </c>
       <c r="K38" s="23">
-        <v>8</v>
+        <v>1221</v>
       </c>
       <c r="L38" s="25">
-        <v>12</v>
+        <v>1877</v>
       </c>
       <c r="M38" s="27">
-        <v>-4</v>
+        <v>-656</v>
       </c>
       <c r="N38" s="29">
-        <v>7</v>
+        <v>1105</v>
       </c>
       <c r="O38" s="31">
+        <v>1590</v>
+      </c>
+      <c r="P38" s="33">
+        <v>-484</v>
+      </c>
+      <c r="Q38" s="35">
+        <v>4299</v>
+      </c>
+      <c r="R38" s="37">
+        <v>3355</v>
+      </c>
+      <c r="S38" s="39">
+        <v>943</v>
+      </c>
+      <c r="T38" s="41">
+        <v>0</v>
+      </c>
+      <c r="U38" s="43">
+        <v>9</v>
+      </c>
+      <c r="V38" s="45">
+        <v>-9</v>
+      </c>
+      <c r="W38" s="47">
+        <v>0</v>
+      </c>
+      <c r="X38" s="49">
         <v>11</v>
       </c>
-      <c r="P38" s="33">
-        <v>-4</v>
-      </c>
-      <c r="Q38" s="35">
-        <v>28</v>
-      </c>
-      <c r="R38" s="37">
-        <v>23</v>
-      </c>
-      <c r="S38" s="39">
-        <v>5</v>
-      </c>
-      <c r="T38" s="41">
-        <v>0</v>
-      </c>
-      <c r="U38" s="43">
-        <v>0</v>
-      </c>
-      <c r="V38" s="45">
-        <v>0</v>
-      </c>
-      <c r="W38" s="47">
-        <v>0</v>
-      </c>
-      <c r="X38" s="49">
-        <v>0</v>
-      </c>
       <c r="Y38" s="51">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="Z38" s="53">
-        <v>25</v>
+        <v>3991</v>
       </c>
       <c r="AA38" s="55">
-        <v>67</v>
+        <v>10241</v>
       </c>
       <c r="AB38" s="57">
-        <v>-42</v>
+        <v>-6249</v>
       </c>
       <c r="AC38" s="59">
-        <v>2</v>
+        <v>280</v>
       </c>
       <c r="AD38" s="61">
-        <v>4</v>
+        <v>532</v>
       </c>
       <c r="AE38" s="63">
-        <v>-2</v>
+        <v>-252</v>
       </c>
       <c r="AF38" s="65">
         <v>0</v>
@@ -5788,16 +5788,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="71">
-        <v>147</v>
+        <v>22543</v>
       </c>
       <c r="AJ38" s="73">
-        <v>89</v>
+        <v>13697</v>
       </c>
       <c r="AK38" s="75">
-        <v>59</v>
+        <v>8846</v>
       </c>
       <c r="AL38" s="77">
-        <v>3394</v>
+        <v>522325</v>
       </c>
     </row>
     <row r="39">
@@ -5805,94 +5805,94 @@
         <v>51</v>
       </c>
       <c r="B39" s="5">
-        <v>313</v>
+        <v>43810</v>
       </c>
       <c r="C39" s="7">
-        <v>331</v>
+        <v>46821</v>
       </c>
       <c r="D39" s="9">
-        <v>-18</v>
+        <v>-3011</v>
       </c>
       <c r="E39" s="11">
-        <v>3084</v>
+        <v>438655</v>
       </c>
       <c r="F39" s="13">
-        <v>2792</v>
+        <v>397651</v>
       </c>
       <c r="G39" s="15">
-        <v>292</v>
+        <v>41004</v>
       </c>
       <c r="H39" s="17">
-        <v>49</v>
+        <v>7067</v>
       </c>
       <c r="I39" s="19">
-        <v>330</v>
+        <v>45982</v>
       </c>
       <c r="J39" s="21">
-        <v>-281</v>
+        <v>-38915</v>
       </c>
       <c r="K39" s="23">
-        <v>14</v>
+        <v>2073</v>
       </c>
       <c r="L39" s="25">
-        <v>22</v>
+        <v>3073</v>
       </c>
       <c r="M39" s="27">
-        <v>-8</v>
+        <v>-1000</v>
       </c>
       <c r="N39" s="29">
-        <v>9</v>
+        <v>1313</v>
       </c>
       <c r="O39" s="31">
-        <v>13</v>
+        <v>1803</v>
       </c>
       <c r="P39" s="33">
-        <v>-4</v>
+        <v>-490</v>
       </c>
       <c r="Q39" s="35">
-        <v>12</v>
+        <v>1740</v>
       </c>
       <c r="R39" s="37">
-        <v>105</v>
+        <v>14600</v>
       </c>
       <c r="S39" s="39">
-        <v>-93</v>
+        <v>-12861</v>
       </c>
       <c r="T39" s="41">
         <v>0</v>
       </c>
       <c r="U39" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W39" s="47">
         <v>0</v>
       </c>
       <c r="X39" s="49">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="Y39" s="51">
-        <v>-1</v>
+        <v>-85</v>
       </c>
       <c r="Z39" s="53">
-        <v>10</v>
+        <v>1373</v>
       </c>
       <c r="AA39" s="55">
-        <v>169</v>
+        <v>23496</v>
       </c>
       <c r="AB39" s="57">
-        <v>-160</v>
+        <v>-22123</v>
       </c>
       <c r="AC39" s="59">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="AD39" s="61">
-        <v>21</v>
+        <v>2924</v>
       </c>
       <c r="AE39" s="63">
-        <v>-17</v>
+        <v>-2356</v>
       </c>
       <c r="AF39" s="65">
         <v>0</v>
@@ -5904,16 +5904,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="71">
-        <v>47</v>
+        <v>6654</v>
       </c>
       <c r="AJ39" s="73">
-        <v>40</v>
+        <v>5732</v>
       </c>
       <c r="AK39" s="75">
-        <v>7</v>
+        <v>922</v>
       </c>
       <c r="AL39" s="77">
-        <v>3493</v>
+        <v>496186</v>
       </c>
     </row>
     <row r="40">
@@ -5921,94 +5921,94 @@
         <v>52</v>
       </c>
       <c r="B40" s="5">
-        <v>247</v>
+        <v>29941</v>
       </c>
       <c r="C40" s="7">
-        <v>247</v>
+        <v>30112</v>
       </c>
       <c r="D40" s="9">
-        <v>0</v>
+        <v>-171</v>
       </c>
       <c r="E40" s="11">
-        <v>2827</v>
+        <v>344069</v>
       </c>
       <c r="F40" s="13">
-        <v>2745</v>
+        <v>334429</v>
       </c>
       <c r="G40" s="15">
-        <v>82</v>
+        <v>9640</v>
       </c>
       <c r="H40" s="17">
-        <v>103</v>
+        <v>12564</v>
       </c>
       <c r="I40" s="19">
-        <v>186</v>
+        <v>22333</v>
       </c>
       <c r="J40" s="21">
-        <v>-83</v>
+        <v>-9769</v>
       </c>
       <c r="K40" s="23">
-        <v>7</v>
+        <v>828</v>
       </c>
       <c r="L40" s="25">
-        <v>10</v>
+        <v>1237</v>
       </c>
       <c r="M40" s="27">
-        <v>-3</v>
+        <v>-409</v>
       </c>
       <c r="N40" s="29">
-        <v>5</v>
+        <v>592</v>
       </c>
       <c r="O40" s="31">
-        <v>17</v>
+        <v>1903</v>
       </c>
       <c r="P40" s="33">
-        <v>-12</v>
+        <v>-1311</v>
       </c>
       <c r="Q40" s="35">
-        <v>41</v>
+        <v>5091</v>
       </c>
       <c r="R40" s="37">
-        <v>45</v>
+        <v>5457</v>
       </c>
       <c r="S40" s="39">
-        <v>-5</v>
+        <v>-367</v>
       </c>
       <c r="T40" s="41">
         <v>0</v>
       </c>
       <c r="U40" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V40" s="45">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W40" s="47">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="X40" s="49">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y40" s="51">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="Z40" s="53">
-        <v>42</v>
+        <v>5076</v>
       </c>
       <c r="AA40" s="55">
-        <v>109</v>
+        <v>13072</v>
       </c>
       <c r="AB40" s="57">
-        <v>-67</v>
+        <v>-7996</v>
       </c>
       <c r="AC40" s="59">
-        <v>5</v>
+        <v>575</v>
       </c>
       <c r="AD40" s="61">
-        <v>5</v>
+        <v>620</v>
       </c>
       <c r="AE40" s="63">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="AF40" s="65">
         <v>0</v>
@@ -6020,16 +6020,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="71">
-        <v>39</v>
+        <v>4856</v>
       </c>
       <c r="AJ40" s="73">
-        <v>38</v>
+        <v>4556</v>
       </c>
       <c r="AK40" s="75">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="AL40" s="77">
-        <v>3216</v>
+        <v>391429</v>
       </c>
     </row>
     <row r="41">
@@ -6037,94 +6037,94 @@
         <v>53</v>
       </c>
       <c r="B41" s="5">
-        <v>230</v>
+        <v>25027</v>
       </c>
       <c r="C41" s="7">
-        <v>268</v>
+        <v>29902</v>
       </c>
       <c r="D41" s="9">
-        <v>-38</v>
+        <v>-4875</v>
       </c>
       <c r="E41" s="11">
-        <v>3344</v>
+        <v>376601</v>
       </c>
       <c r="F41" s="13">
-        <v>3188</v>
+        <v>358864</v>
       </c>
       <c r="G41" s="15">
-        <v>156</v>
+        <v>17738</v>
       </c>
       <c r="H41" s="17">
-        <v>111</v>
+        <v>11931</v>
       </c>
       <c r="I41" s="19">
-        <v>233</v>
+        <v>25198</v>
       </c>
       <c r="J41" s="21">
-        <v>-123</v>
+        <v>-13267</v>
       </c>
       <c r="K41" s="23">
-        <v>22</v>
+        <v>2364</v>
       </c>
       <c r="L41" s="25">
-        <v>17</v>
+        <v>1784</v>
       </c>
       <c r="M41" s="27">
-        <v>5</v>
+        <v>580</v>
       </c>
       <c r="N41" s="29">
-        <v>7</v>
+        <v>751</v>
       </c>
       <c r="O41" s="31">
-        <v>33</v>
+        <v>3605</v>
       </c>
       <c r="P41" s="33">
-        <v>-26</v>
+        <v>-2853</v>
       </c>
       <c r="Q41" s="35">
-        <v>19</v>
+        <v>1957</v>
       </c>
       <c r="R41" s="37">
-        <v>64</v>
+        <v>6720</v>
       </c>
       <c r="S41" s="39">
-        <v>-45</v>
+        <v>-4763</v>
       </c>
       <c r="T41" s="41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U41" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W41" s="47">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="X41" s="49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y41" s="51">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z41" s="53">
-        <v>48</v>
+        <v>5137</v>
       </c>
       <c r="AA41" s="55">
-        <v>106</v>
+        <v>11510</v>
       </c>
       <c r="AB41" s="57">
-        <v>-58</v>
+        <v>-6373</v>
       </c>
       <c r="AC41" s="59">
-        <v>14</v>
+        <v>1630</v>
       </c>
       <c r="AD41" s="61">
-        <v>13</v>
+        <v>1529</v>
       </c>
       <c r="AE41" s="63">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AF41" s="65">
         <v>0</v>
@@ -6136,16 +6136,16 @@
         <v>0</v>
       </c>
       <c r="AI41" s="71">
-        <v>43</v>
+        <v>4814</v>
       </c>
       <c r="AJ41" s="73">
-        <v>38</v>
+        <v>4409</v>
       </c>
       <c r="AK41" s="75">
-        <v>5</v>
+        <v>405</v>
       </c>
       <c r="AL41" s="77">
-        <v>3728</v>
+        <v>418373</v>
       </c>
     </row>
     <row r="42">
@@ -6153,94 +6153,94 @@
         <v>54</v>
       </c>
       <c r="B42" s="5">
-        <v>68</v>
+        <v>5802</v>
       </c>
       <c r="C42" s="7">
-        <v>76</v>
+        <v>6448</v>
       </c>
       <c r="D42" s="9">
-        <v>-7</v>
+        <v>-647</v>
       </c>
       <c r="E42" s="11">
-        <v>493</v>
+        <v>42113</v>
       </c>
       <c r="F42" s="13">
-        <v>484</v>
+        <v>41284</v>
       </c>
       <c r="G42" s="15">
-        <v>10</v>
+        <v>829</v>
       </c>
       <c r="H42" s="17">
-        <v>33</v>
+        <v>2851</v>
       </c>
       <c r="I42" s="19">
-        <v>32</v>
+        <v>2718</v>
       </c>
       <c r="J42" s="21">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="K42" s="23">
-        <v>7</v>
+        <v>592</v>
       </c>
       <c r="L42" s="25">
-        <v>6</v>
+        <v>519</v>
       </c>
       <c r="M42" s="27">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N42" s="29">
-        <v>10</v>
+        <v>871</v>
       </c>
       <c r="O42" s="31">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="P42" s="33">
-        <v>8</v>
+        <v>702</v>
       </c>
       <c r="Q42" s="35">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="R42" s="37">
-        <v>11</v>
+        <v>911</v>
       </c>
       <c r="S42" s="39">
-        <v>-6</v>
+        <v>-554</v>
       </c>
       <c r="T42" s="41">
         <v>0</v>
       </c>
       <c r="U42" s="43">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="V42" s="45">
-        <v>-5</v>
+        <v>-432</v>
       </c>
       <c r="W42" s="47">
         <v>0</v>
       </c>
       <c r="X42" s="49">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y42" s="51">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="Z42" s="53">
-        <v>12</v>
+        <v>1001</v>
       </c>
       <c r="AA42" s="55">
-        <v>7</v>
+        <v>623</v>
       </c>
       <c r="AB42" s="57">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="AC42" s="59">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD42" s="61">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="AE42" s="63">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AF42" s="65">
         <v>0</v>
@@ -6252,16 +6252,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="71">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="AJ42" s="73">
-        <v>6</v>
+        <v>521</v>
       </c>
       <c r="AK42" s="75">
-        <v>-4</v>
+        <v>-315</v>
       </c>
       <c r="AL42" s="77">
-        <v>597</v>
+        <v>50972</v>
       </c>
     </row>
     <row r="43">
@@ -6269,94 +6269,94 @@
         <v>55</v>
       </c>
       <c r="B43" s="5">
-        <v>116</v>
+        <v>8030</v>
       </c>
       <c r="C43" s="7">
-        <v>132</v>
+        <v>9144</v>
       </c>
       <c r="D43" s="9">
-        <v>-16</v>
+        <v>-1114</v>
       </c>
       <c r="E43" s="11">
-        <v>519</v>
+        <v>36390</v>
       </c>
       <c r="F43" s="13">
-        <v>512</v>
+        <v>35949</v>
       </c>
       <c r="G43" s="15">
-        <v>7</v>
+        <v>441</v>
       </c>
       <c r="H43" s="17">
-        <v>37</v>
+        <v>2595</v>
       </c>
       <c r="I43" s="19">
-        <v>27</v>
+        <v>1894</v>
       </c>
       <c r="J43" s="21">
-        <v>10</v>
+        <v>701</v>
       </c>
       <c r="K43" s="23">
-        <v>12</v>
+        <v>806</v>
       </c>
       <c r="L43" s="25">
-        <v>11</v>
+        <v>757</v>
       </c>
       <c r="M43" s="27">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N43" s="29">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="O43" s="31">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="P43" s="33">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="Q43" s="35">
+        <v>418</v>
+      </c>
+      <c r="R43" s="37">
+        <v>769</v>
+      </c>
+      <c r="S43" s="39">
+        <v>-352</v>
+      </c>
+      <c r="T43" s="41">
+        <v>308</v>
+      </c>
+      <c r="U43" s="43">
+        <v>18</v>
+      </c>
+      <c r="V43" s="45">
+        <v>290</v>
+      </c>
+      <c r="W43" s="47">
         <v>6</v>
       </c>
-      <c r="R43" s="37">
-        <v>11</v>
-      </c>
-      <c r="S43" s="39">
-        <v>-5</v>
-      </c>
-      <c r="T43" s="41">
-        <v>5</v>
-      </c>
-      <c r="U43" s="43">
-        <v>0</v>
-      </c>
-      <c r="V43" s="45">
-        <v>5</v>
-      </c>
-      <c r="W43" s="47">
-        <v>0</v>
-      </c>
       <c r="X43" s="49">
         <v>0</v>
       </c>
       <c r="Y43" s="51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z43" s="53">
-        <v>12</v>
+        <v>917</v>
       </c>
       <c r="AA43" s="55">
-        <v>4</v>
+        <v>277</v>
       </c>
       <c r="AB43" s="57">
-        <v>8</v>
+        <v>641</v>
       </c>
       <c r="AC43" s="59">
         <v>0</v>
       </c>
       <c r="AD43" s="61">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE43" s="63">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AF43" s="65">
         <v>0</v>
@@ -6368,16 +6368,16 @@
         <v>0</v>
       </c>
       <c r="AI43" s="71">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="AJ43" s="73">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="AK43" s="75">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="AL43" s="77">
-        <v>674</v>
+        <v>47235</v>
       </c>
     </row>
     <row r="44">
@@ -6385,94 +6385,94 @@
         <v>56</v>
       </c>
       <c r="B44" s="5">
-        <v>212</v>
+        <v>13267</v>
       </c>
       <c r="C44" s="7">
-        <v>175</v>
+        <v>10760</v>
       </c>
       <c r="D44" s="9">
-        <v>37</v>
+        <v>2506</v>
       </c>
       <c r="E44" s="11">
-        <v>715</v>
+        <v>43577</v>
       </c>
       <c r="F44" s="13">
-        <v>669</v>
+        <v>41153</v>
       </c>
       <c r="G44" s="15">
-        <v>46</v>
+        <v>2425</v>
       </c>
       <c r="H44" s="17">
-        <v>31</v>
+        <v>1966</v>
       </c>
       <c r="I44" s="19">
-        <v>125</v>
+        <v>7558</v>
       </c>
       <c r="J44" s="21">
-        <v>-94</v>
+        <v>-5592</v>
       </c>
       <c r="K44" s="23">
-        <v>6</v>
+        <v>335</v>
       </c>
       <c r="L44" s="25">
-        <v>17</v>
+        <v>1016</v>
       </c>
       <c r="M44" s="27">
-        <v>-11</v>
+        <v>-682</v>
       </c>
       <c r="N44" s="29">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="O44" s="31">
-        <v>21</v>
+        <v>1091</v>
       </c>
       <c r="P44" s="33">
-        <v>-17</v>
+        <v>-841</v>
       </c>
       <c r="Q44" s="35">
-        <v>12</v>
+        <v>811</v>
       </c>
       <c r="R44" s="37">
-        <v>39</v>
+        <v>2752</v>
       </c>
       <c r="S44" s="39">
-        <v>-26</v>
+        <v>-1941</v>
       </c>
       <c r="T44" s="41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U44" s="43">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="V44" s="45">
-        <v>-3</v>
+        <v>-165</v>
       </c>
       <c r="W44" s="47">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="X44" s="49">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="Y44" s="51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z44" s="53">
-        <v>6</v>
+        <v>395</v>
       </c>
       <c r="AA44" s="55">
-        <v>33</v>
+        <v>1787</v>
       </c>
       <c r="AB44" s="57">
-        <v>-27</v>
+        <v>-1392</v>
       </c>
       <c r="AC44" s="59">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="AD44" s="61">
-        <v>10</v>
+        <v>628</v>
       </c>
       <c r="AE44" s="63">
-        <v>-10</v>
+        <v>-580</v>
       </c>
       <c r="AF44" s="65">
         <v>0</v>
@@ -6484,16 +6484,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="71">
-        <v>18</v>
+        <v>1015</v>
       </c>
       <c r="AJ44" s="73">
-        <v>6</v>
+        <v>353</v>
       </c>
       <c r="AK44" s="75">
-        <v>12</v>
+        <v>661</v>
       </c>
       <c r="AL44" s="77">
-        <v>975</v>
+        <v>59825</v>
       </c>
     </row>
     <row r="45">
@@ -6501,94 +6501,94 @@
         <v>57</v>
       </c>
       <c r="B45" s="5">
-        <v>92</v>
+        <v>8771</v>
       </c>
       <c r="C45" s="7">
-        <v>85</v>
+        <v>8139</v>
       </c>
       <c r="D45" s="9">
-        <v>7</v>
+        <v>631</v>
       </c>
       <c r="E45" s="11">
-        <v>389</v>
+        <v>37216</v>
       </c>
       <c r="F45" s="13">
-        <v>336</v>
+        <v>32039</v>
       </c>
       <c r="G45" s="15">
-        <v>53</v>
+        <v>5177</v>
       </c>
       <c r="H45" s="17">
-        <v>32</v>
+        <v>3101</v>
       </c>
       <c r="I45" s="19">
-        <v>90</v>
+        <v>8745</v>
       </c>
       <c r="J45" s="21">
-        <v>-58</v>
+        <v>-5645</v>
       </c>
       <c r="K45" s="23">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="L45" s="25">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="M45" s="27">
-        <v>-1</v>
+        <v>-93</v>
       </c>
       <c r="N45" s="29">
+        <v>106</v>
+      </c>
+      <c r="O45" s="31">
+        <v>342</v>
+      </c>
+      <c r="P45" s="33">
+        <v>-236</v>
+      </c>
+      <c r="Q45" s="35">
+        <v>1618</v>
+      </c>
+      <c r="R45" s="37">
+        <v>1770</v>
+      </c>
+      <c r="S45" s="39">
+        <v>-152</v>
+      </c>
+      <c r="T45" s="41">
         <v>1</v>
       </c>
-      <c r="O45" s="31">
-        <v>4</v>
-      </c>
-      <c r="P45" s="33">
-        <v>-2</v>
-      </c>
-      <c r="Q45" s="35">
-        <v>17</v>
-      </c>
-      <c r="R45" s="37">
-        <v>18</v>
-      </c>
-      <c r="S45" s="39">
-        <v>-1</v>
-      </c>
-      <c r="T45" s="41">
-        <v>0</v>
-      </c>
       <c r="U45" s="43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V45" s="45">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="W45" s="47">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X45" s="49">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="Y45" s="51">
-        <v>-1</v>
+        <v>-111</v>
       </c>
       <c r="Z45" s="53">
-        <v>12</v>
+        <v>1139</v>
       </c>
       <c r="AA45" s="55">
-        <v>60</v>
+        <v>5855</v>
       </c>
       <c r="AB45" s="57">
-        <v>-48</v>
+        <v>-4715</v>
       </c>
       <c r="AC45" s="59">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="AD45" s="61">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="AE45" s="63">
-        <v>-4</v>
+        <v>-327</v>
       </c>
       <c r="AF45" s="65">
         <v>0</v>
@@ -6600,16 +6600,16 @@
         <v>0</v>
       </c>
       <c r="AI45" s="71">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="AJ45" s="73">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="AK45" s="75">
-        <v>-2</v>
+        <v>-163</v>
       </c>
       <c r="AL45" s="77">
-        <v>514</v>
+        <v>49265</v>
       </c>
     </row>
     <row r="46">
@@ -6617,94 +6617,94 @@
         <v>58</v>
       </c>
       <c r="B46" s="5">
-        <v>58</v>
+        <v>6291</v>
       </c>
       <c r="C46" s="7">
-        <v>50</v>
+        <v>5357</v>
       </c>
       <c r="D46" s="9">
-        <v>8</v>
+        <v>934</v>
       </c>
       <c r="E46" s="11">
-        <v>311</v>
+        <v>33291</v>
       </c>
       <c r="F46" s="13">
-        <v>295</v>
+        <v>31630</v>
       </c>
       <c r="G46" s="15">
-        <v>16</v>
+        <v>1662</v>
       </c>
       <c r="H46" s="17">
-        <v>28</v>
+        <v>2931</v>
       </c>
       <c r="I46" s="19">
-        <v>54</v>
+        <v>5683</v>
       </c>
       <c r="J46" s="21">
-        <v>-26</v>
+        <v>-2752</v>
       </c>
       <c r="K46" s="23">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="L46" s="25">
-        <v>2</v>
+        <v>216</v>
       </c>
       <c r="M46" s="27">
-        <v>-2</v>
+        <v>-155</v>
       </c>
       <c r="N46" s="29">
-        <v>3</v>
+        <v>314</v>
       </c>
       <c r="O46" s="31">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="P46" s="33">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="Q46" s="35">
-        <v>12</v>
+        <v>1231</v>
       </c>
       <c r="R46" s="37">
-        <v>14</v>
+        <v>1543</v>
       </c>
       <c r="S46" s="39">
-        <v>-3</v>
+        <v>-313</v>
       </c>
       <c r="T46" s="41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U46" s="43">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V46" s="45">
         <v>0</v>
       </c>
       <c r="W46" s="47">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="X46" s="49">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Y46" s="51">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Z46" s="53">
-        <v>9</v>
+        <v>953</v>
       </c>
       <c r="AA46" s="55">
-        <v>35</v>
+        <v>3700</v>
       </c>
       <c r="AB46" s="57">
-        <v>-26</v>
+        <v>-2748</v>
       </c>
       <c r="AC46" s="59">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="AD46" s="61">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AE46" s="63">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="AF46" s="65">
         <v>0</v>
@@ -6716,16 +6716,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="71">
-        <v>3</v>
+        <v>321</v>
       </c>
       <c r="AJ46" s="73">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="AK46" s="75">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="AL46" s="77">
-        <v>400</v>
+        <v>42835</v>
       </c>
     </row>
     <row r="47">
@@ -6733,94 +6733,94 @@
         <v>59</v>
       </c>
       <c r="B47" s="5">
-        <v>42</v>
+        <v>4615</v>
       </c>
       <c r="C47" s="7">
-        <v>26</v>
+        <v>2799</v>
       </c>
       <c r="D47" s="9">
-        <v>17</v>
+        <v>1815</v>
       </c>
       <c r="E47" s="11">
-        <v>177</v>
+        <v>19245</v>
       </c>
       <c r="F47" s="13">
-        <v>227</v>
+        <v>24613</v>
       </c>
       <c r="G47" s="15">
-        <v>-49</v>
+        <v>-5368</v>
       </c>
       <c r="H47" s="17">
-        <v>49</v>
+        <v>5322</v>
       </c>
       <c r="I47" s="19">
-        <v>18</v>
+        <v>1935</v>
       </c>
       <c r="J47" s="21">
-        <v>31</v>
+        <v>3387</v>
       </c>
       <c r="K47" s="23">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="L47" s="25">
-        <v>2</v>
+        <v>216</v>
       </c>
       <c r="M47" s="27">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="N47" s="29">
-        <v>12</v>
+        <v>1289</v>
       </c>
       <c r="O47" s="31">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="P47" s="33">
-        <v>10</v>
+        <v>1133</v>
       </c>
       <c r="Q47" s="35">
-        <v>18</v>
+        <v>1886</v>
       </c>
       <c r="R47" s="37">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="S47" s="39">
-        <v>14</v>
+        <v>1533</v>
       </c>
       <c r="T47" s="41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U47" s="43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V47" s="45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W47" s="47">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="X47" s="49">
         <v>0</v>
       </c>
       <c r="Y47" s="51">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="Z47" s="53">
-        <v>12</v>
+        <v>1270</v>
       </c>
       <c r="AA47" s="55">
-        <v>9</v>
+        <v>937</v>
       </c>
       <c r="AB47" s="57">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="AC47" s="59">
-        <v>6</v>
+        <v>616</v>
       </c>
       <c r="AD47" s="61">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="AE47" s="63">
-        <v>3</v>
+        <v>357</v>
       </c>
       <c r="AF47" s="65">
         <v>0</v>
@@ -6832,16 +6832,16 @@
         <v>0</v>
       </c>
       <c r="AI47" s="71">
-        <v>5</v>
+        <v>498</v>
       </c>
       <c r="AJ47" s="73">
-        <v>3</v>
+        <v>332</v>
       </c>
       <c r="AK47" s="75">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="AL47" s="77">
-        <v>274</v>
+        <v>29680</v>
       </c>
     </row>
     <row r="48">
@@ -6849,94 +6849,94 @@
         <v>60</v>
       </c>
       <c r="B48" s="5">
-        <v>46</v>
+        <v>4901</v>
       </c>
       <c r="C48" s="7">
-        <v>66</v>
+        <v>7181</v>
       </c>
       <c r="D48" s="9">
-        <v>-21</v>
+        <v>-2279</v>
       </c>
       <c r="E48" s="11">
-        <v>353</v>
+        <v>38119</v>
       </c>
       <c r="F48" s="13">
-        <v>354</v>
+        <v>38101</v>
       </c>
       <c r="G48" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H48" s="17">
-        <v>58</v>
+        <v>6274</v>
       </c>
       <c r="I48" s="19">
-        <v>39</v>
+        <v>4176</v>
       </c>
       <c r="J48" s="21">
-        <v>19</v>
+        <v>2098</v>
       </c>
       <c r="K48" s="23">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="L48" s="25">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="M48" s="27">
-        <v>-1</v>
+        <v>-135</v>
       </c>
       <c r="N48" s="29">
-        <v>5</v>
+        <v>546</v>
       </c>
       <c r="O48" s="31">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="P48" s="33">
-        <v>3</v>
+        <v>314</v>
       </c>
       <c r="Q48" s="35">
-        <v>14</v>
+        <v>1500</v>
       </c>
       <c r="R48" s="37">
-        <v>9</v>
+        <v>972</v>
       </c>
       <c r="S48" s="39">
-        <v>5</v>
+        <v>528</v>
       </c>
       <c r="T48" s="41">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U48" s="43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V48" s="45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W48" s="47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X48" s="49">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y48" s="51">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z48" s="53">
-        <v>25</v>
+        <v>2720</v>
       </c>
       <c r="AA48" s="55">
-        <v>18</v>
+        <v>1945</v>
       </c>
       <c r="AB48" s="57">
-        <v>7</v>
+        <v>775</v>
       </c>
       <c r="AC48" s="59">
-        <v>10</v>
+        <v>1112</v>
       </c>
       <c r="AD48" s="61">
-        <v>5</v>
+        <v>560</v>
       </c>
       <c r="AE48" s="63">
-        <v>5</v>
+        <v>552</v>
       </c>
       <c r="AF48" s="65">
         <v>0</v>
@@ -6948,16 +6948,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="71">
-        <v>3</v>
+        <v>272</v>
       </c>
       <c r="AJ48" s="73">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="AK48" s="75">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="AL48" s="77">
-        <v>460</v>
+        <v>49567</v>
       </c>
     </row>
     <row r="49">
@@ -6965,94 +6965,94 @@
         <v>61</v>
       </c>
       <c r="B49" s="5">
-        <v>65</v>
+        <v>7859</v>
       </c>
       <c r="C49" s="7">
-        <v>92</v>
+        <v>11066</v>
       </c>
       <c r="D49" s="9">
-        <v>-27</v>
+        <v>-3207</v>
       </c>
       <c r="E49" s="11">
-        <v>584</v>
+        <v>70592</v>
       </c>
       <c r="F49" s="13">
-        <v>536</v>
+        <v>65370</v>
       </c>
       <c r="G49" s="15">
-        <v>47</v>
+        <v>5223</v>
       </c>
       <c r="H49" s="17">
-        <v>76</v>
+        <v>9516</v>
       </c>
       <c r="I49" s="19">
-        <v>87</v>
+        <v>10319</v>
       </c>
       <c r="J49" s="21">
-        <v>-11</v>
+        <v>-804</v>
       </c>
       <c r="K49" s="23">
-        <v>8</v>
+        <v>1013</v>
       </c>
       <c r="L49" s="25">
-        <v>10</v>
+        <v>1181</v>
       </c>
       <c r="M49" s="27">
-        <v>-1</v>
+        <v>-168</v>
       </c>
       <c r="N49" s="29">
-        <v>11</v>
+        <v>1392</v>
       </c>
       <c r="O49" s="31">
-        <v>18</v>
+        <v>2058</v>
       </c>
       <c r="P49" s="33">
-        <v>-6</v>
+        <v>-666</v>
       </c>
       <c r="Q49" s="35">
-        <v>12</v>
+        <v>1501</v>
       </c>
       <c r="R49" s="37">
-        <v>21</v>
+        <v>2447</v>
       </c>
       <c r="S49" s="39">
-        <v>-9</v>
+        <v>-946</v>
       </c>
       <c r="T49" s="41">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U49" s="43">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V49" s="45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W49" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X49" s="49">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="Y49" s="51">
-        <v>-1</v>
+        <v>-66</v>
       </c>
       <c r="Z49" s="53">
-        <v>31</v>
+        <v>3924</v>
       </c>
       <c r="AA49" s="55">
-        <v>26</v>
+        <v>3170</v>
       </c>
       <c r="AB49" s="57">
-        <v>5</v>
+        <v>754</v>
       </c>
       <c r="AC49" s="59">
-        <v>13</v>
+        <v>1657</v>
       </c>
       <c r="AD49" s="61">
-        <v>12</v>
+        <v>1375</v>
       </c>
       <c r="AE49" s="63">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="AF49" s="65">
         <v>0</v>
@@ -7064,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="AI49" s="71">
-        <v>10</v>
+        <v>1198</v>
       </c>
       <c r="AJ49" s="73">
-        <v>20</v>
+        <v>2409</v>
       </c>
       <c r="AK49" s="75">
-        <v>-10</v>
+        <v>-1212</v>
       </c>
       <c r="AL49" s="77">
-        <v>735</v>
+        <v>89164</v>
       </c>
     </row>
     <row r="50">
@@ -7081,94 +7081,94 @@
         <v>62</v>
       </c>
       <c r="B50" s="5">
-        <v>90</v>
+        <v>11621</v>
       </c>
       <c r="C50" s="7">
-        <v>114</v>
+        <v>14869</v>
       </c>
       <c r="D50" s="9">
-        <v>-25</v>
+        <v>-3248</v>
       </c>
       <c r="E50" s="11">
-        <v>782</v>
+        <v>101750</v>
       </c>
       <c r="F50" s="13">
-        <v>768</v>
+        <v>99689</v>
       </c>
       <c r="G50" s="15">
-        <v>15</v>
+        <v>2061</v>
       </c>
       <c r="H50" s="17">
-        <v>74</v>
+        <v>9565</v>
       </c>
       <c r="I50" s="19">
-        <v>70</v>
+        <v>9133</v>
       </c>
       <c r="J50" s="21">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="K50" s="23">
-        <v>5</v>
+        <v>621</v>
       </c>
       <c r="L50" s="25">
+        <v>1003</v>
+      </c>
+      <c r="M50" s="27">
+        <v>-382</v>
+      </c>
+      <c r="N50" s="29">
+        <v>482</v>
+      </c>
+      <c r="O50" s="31">
+        <v>1220</v>
+      </c>
+      <c r="P50" s="33">
+        <v>-738</v>
+      </c>
+      <c r="Q50" s="35">
+        <v>1242</v>
+      </c>
+      <c r="R50" s="37">
+        <v>3778</v>
+      </c>
+      <c r="S50" s="39">
+        <v>-2536</v>
+      </c>
+      <c r="T50" s="41">
+        <v>3</v>
+      </c>
+      <c r="U50" s="43">
         <v>8</v>
       </c>
-      <c r="M50" s="27">
-        <v>-3</v>
-      </c>
-      <c r="N50" s="29">
-        <v>4</v>
-      </c>
-      <c r="O50" s="31">
-        <v>9</v>
-      </c>
-      <c r="P50" s="33">
-        <v>-6</v>
-      </c>
-      <c r="Q50" s="35">
-        <v>10</v>
-      </c>
-      <c r="R50" s="37">
-        <v>29</v>
-      </c>
-      <c r="S50" s="39">
-        <v>-19</v>
-      </c>
-      <c r="T50" s="41">
-        <v>0</v>
-      </c>
-      <c r="U50" s="43">
-        <v>0</v>
-      </c>
       <c r="V50" s="45">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="W50" s="47">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X50" s="49">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Y50" s="51">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="Z50" s="53">
-        <v>41</v>
+        <v>5263</v>
       </c>
       <c r="AA50" s="55">
-        <v>11</v>
+        <v>1454</v>
       </c>
       <c r="AB50" s="57">
-        <v>30</v>
+        <v>3809</v>
       </c>
       <c r="AC50" s="59">
-        <v>15</v>
+        <v>1926</v>
       </c>
       <c r="AD50" s="61">
-        <v>12</v>
+        <v>1608</v>
       </c>
       <c r="AE50" s="63">
-        <v>3</v>
+        <v>318</v>
       </c>
       <c r="AF50" s="65">
         <v>0</v>
@@ -7180,16 +7180,16 @@
         <v>0</v>
       </c>
       <c r="AI50" s="71">
-        <v>16</v>
+        <v>2040</v>
       </c>
       <c r="AJ50" s="73">
-        <v>10</v>
+        <v>1285</v>
       </c>
       <c r="AK50" s="75">
-        <v>6</v>
+        <v>755</v>
       </c>
       <c r="AL50" s="77">
-        <v>962</v>
+        <v>124976</v>
       </c>
     </row>
     <row r="51">
@@ -7197,94 +7197,94 @@
         <v>63</v>
       </c>
       <c r="B51" s="5">
-        <v>189</v>
+        <v>25111</v>
       </c>
       <c r="C51" s="7">
-        <v>351</v>
+        <v>45701</v>
       </c>
       <c r="D51" s="9">
-        <v>-162</v>
+        <v>-20590</v>
       </c>
       <c r="E51" s="11">
-        <v>2716</v>
+        <v>364051</v>
       </c>
       <c r="F51" s="13">
-        <v>2405</v>
+        <v>322700</v>
       </c>
       <c r="G51" s="15">
-        <v>311</v>
+        <v>41352</v>
       </c>
       <c r="H51" s="17">
-        <v>123</v>
+        <v>16379</v>
       </c>
       <c r="I51" s="19">
-        <v>279</v>
+        <v>37974</v>
       </c>
       <c r="J51" s="21">
-        <v>-156</v>
+        <v>-21595</v>
       </c>
       <c r="K51" s="23">
-        <v>16</v>
+        <v>2202</v>
       </c>
       <c r="L51" s="25">
-        <v>15</v>
+        <v>2002</v>
       </c>
       <c r="M51" s="27">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="N51" s="29">
-        <v>4</v>
+        <v>448</v>
       </c>
       <c r="O51" s="31">
-        <v>38</v>
+        <v>5000</v>
       </c>
       <c r="P51" s="33">
-        <v>-34</v>
+        <v>-4552</v>
       </c>
       <c r="Q51" s="35">
-        <v>32</v>
+        <v>4224</v>
       </c>
       <c r="R51" s="37">
-        <v>77</v>
+        <v>10424</v>
       </c>
       <c r="S51" s="39">
-        <v>-46</v>
+        <v>-6201</v>
       </c>
       <c r="T51" s="41">
         <v>0</v>
       </c>
       <c r="U51" s="43">
-        <v>13</v>
+        <v>1735</v>
       </c>
       <c r="V51" s="45">
-        <v>-13</v>
+        <v>-1735</v>
       </c>
       <c r="W51" s="47">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="X51" s="49">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="Y51" s="51">
-        <v>-1</v>
+        <v>-165</v>
       </c>
       <c r="Z51" s="53">
-        <v>35</v>
+        <v>4682</v>
       </c>
       <c r="AA51" s="55">
-        <v>85</v>
+        <v>11563</v>
       </c>
       <c r="AB51" s="57">
-        <v>-50</v>
+        <v>-6881</v>
       </c>
       <c r="AC51" s="59">
-        <v>36</v>
+        <v>4722</v>
       </c>
       <c r="AD51" s="61">
-        <v>50</v>
+        <v>6984</v>
       </c>
       <c r="AE51" s="63">
-        <v>-15</v>
+        <v>-2262</v>
       </c>
       <c r="AF51" s="65">
         <v>0</v>
@@ -7296,16 +7296,16 @@
         <v>0</v>
       </c>
       <c r="AI51" s="71">
-        <v>17</v>
+        <v>2313</v>
       </c>
       <c r="AJ51" s="73">
-        <v>11</v>
+        <v>1480</v>
       </c>
       <c r="AK51" s="75">
-        <v>6</v>
+        <v>833</v>
       </c>
       <c r="AL51" s="77">
-        <v>3046</v>
+        <v>407855</v>
       </c>
     </row>
     <row r="52">
@@ -7313,94 +7313,94 @@
         <v>64</v>
       </c>
       <c r="B52" s="5">
-        <v>132</v>
+        <v>16389</v>
       </c>
       <c r="C52" s="7">
-        <v>96</v>
+        <v>11999</v>
       </c>
       <c r="D52" s="9">
-        <v>36</v>
+        <v>4390</v>
       </c>
       <c r="E52" s="11">
-        <v>541</v>
+        <v>67483</v>
       </c>
       <c r="F52" s="13">
-        <v>532</v>
+        <v>66518</v>
       </c>
       <c r="G52" s="15">
-        <v>9</v>
+        <v>964</v>
       </c>
       <c r="H52" s="17">
-        <v>149</v>
+        <v>18710</v>
       </c>
       <c r="I52" s="19">
-        <v>190</v>
+        <v>23601</v>
       </c>
       <c r="J52" s="21">
-        <v>-41</v>
+        <v>-4891</v>
       </c>
       <c r="K52" s="23">
-        <v>20</v>
+        <v>2556</v>
       </c>
       <c r="L52" s="25">
-        <v>15</v>
+        <v>1902</v>
       </c>
       <c r="M52" s="27">
-        <v>5</v>
+        <v>654</v>
       </c>
       <c r="N52" s="29">
-        <v>13</v>
+        <v>1644</v>
       </c>
       <c r="O52" s="31">
-        <v>17</v>
+        <v>2126</v>
       </c>
       <c r="P52" s="33">
-        <v>-4</v>
+        <v>-482</v>
       </c>
       <c r="Q52" s="35">
-        <v>35</v>
+        <v>4364</v>
       </c>
       <c r="R52" s="37">
-        <v>56</v>
+        <v>7052</v>
       </c>
       <c r="S52" s="39">
-        <v>-22</v>
+        <v>-2688</v>
       </c>
       <c r="T52" s="41">
-        <v>6</v>
+        <v>795</v>
       </c>
       <c r="U52" s="43">
-        <v>7</v>
+        <v>901</v>
       </c>
       <c r="V52" s="45">
-        <v>-1</v>
+        <v>-106</v>
       </c>
       <c r="W52" s="47">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="X52" s="49">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="Y52" s="51">
-        <v>-1</v>
+        <v>-121</v>
       </c>
       <c r="Z52" s="53">
-        <v>48</v>
+        <v>6061</v>
       </c>
       <c r="AA52" s="55">
-        <v>56</v>
+        <v>6855</v>
       </c>
       <c r="AB52" s="57">
-        <v>-8</v>
+        <v>-794</v>
       </c>
       <c r="AC52" s="59">
-        <v>26</v>
+        <v>3239</v>
       </c>
       <c r="AD52" s="61">
-        <v>37</v>
+        <v>4594</v>
       </c>
       <c r="AE52" s="63">
-        <v>-11</v>
+        <v>-1355</v>
       </c>
       <c r="AF52" s="65">
         <v>0</v>
@@ -7412,16 +7412,16 @@
         <v>0</v>
       </c>
       <c r="AI52" s="71">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="AJ52" s="73">
-        <v>5</v>
+        <v>634</v>
       </c>
       <c r="AK52" s="75">
-        <v>-4</v>
+        <v>-463</v>
       </c>
       <c r="AL52" s="77">
-        <v>823</v>
+        <v>102752</v>
       </c>
     </row>
     <row r="53">
@@ -7429,94 +7429,94 @@
         <v>65</v>
       </c>
       <c r="B53" s="5">
-        <v>65</v>
+        <v>7431</v>
       </c>
       <c r="C53" s="7">
-        <v>137</v>
+        <v>15725</v>
       </c>
       <c r="D53" s="9">
-        <v>-72</v>
+        <v>-8294</v>
       </c>
       <c r="E53" s="11">
-        <v>166</v>
+        <v>19190</v>
       </c>
       <c r="F53" s="13">
-        <v>152</v>
+        <v>17772</v>
       </c>
       <c r="G53" s="15">
-        <v>14</v>
+        <v>1418</v>
       </c>
       <c r="H53" s="17">
-        <v>117</v>
+        <v>13611</v>
       </c>
       <c r="I53" s="19">
-        <v>58</v>
+        <v>6678</v>
       </c>
       <c r="J53" s="21">
-        <v>59</v>
+        <v>6933</v>
       </c>
       <c r="K53" s="23">
-        <v>9</v>
+        <v>1047</v>
       </c>
       <c r="L53" s="25">
-        <v>14</v>
+        <v>1606</v>
       </c>
       <c r="M53" s="27">
-        <v>-5</v>
+        <v>-559</v>
       </c>
       <c r="N53" s="29">
-        <v>13</v>
+        <v>1492</v>
       </c>
       <c r="O53" s="31">
-        <v>10</v>
+        <v>1168</v>
       </c>
       <c r="P53" s="33">
-        <v>3</v>
+        <v>324</v>
       </c>
       <c r="Q53" s="35">
-        <v>35</v>
+        <v>4072</v>
       </c>
       <c r="R53" s="37">
-        <v>15</v>
+        <v>1759</v>
       </c>
       <c r="S53" s="39">
-        <v>19</v>
+        <v>2314</v>
       </c>
       <c r="T53" s="41">
-        <v>5</v>
+        <v>562</v>
       </c>
       <c r="U53" s="43">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="V53" s="45">
-        <v>4</v>
+        <v>470</v>
       </c>
       <c r="W53" s="47">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="X53" s="49">
         <v>0</v>
       </c>
       <c r="Y53" s="51">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="Z53" s="53">
-        <v>40</v>
+        <v>4703</v>
       </c>
       <c r="AA53" s="55">
-        <v>16</v>
+        <v>1798</v>
       </c>
       <c r="AB53" s="57">
-        <v>25</v>
+        <v>2905</v>
       </c>
       <c r="AC53" s="59">
-        <v>15</v>
+        <v>1682</v>
       </c>
       <c r="AD53" s="61">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="AE53" s="63">
-        <v>12</v>
+        <v>1427</v>
       </c>
       <c r="AF53" s="65">
         <v>0</v>
@@ -7528,16 +7528,16 @@
         <v>0</v>
       </c>
       <c r="AI53" s="71">
-        <v>4</v>
+        <v>485</v>
       </c>
       <c r="AJ53" s="73">
-        <v>5</v>
+        <v>543</v>
       </c>
       <c r="AK53" s="75">
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="AL53" s="77">
-        <v>351</v>
+        <v>40718</v>
       </c>
     </row>
     <row r="54">
@@ -7545,94 +7545,94 @@
         <v>66</v>
       </c>
       <c r="B54" s="5">
-        <v>82</v>
+        <v>10000</v>
       </c>
       <c r="C54" s="7">
-        <v>75</v>
+        <v>8674</v>
       </c>
       <c r="D54" s="9">
-        <v>8</v>
+        <v>1325</v>
       </c>
       <c r="E54" s="11">
-        <v>246</v>
+        <v>29778</v>
       </c>
       <c r="F54" s="13">
-        <v>229</v>
+        <v>28238</v>
       </c>
       <c r="G54" s="15">
-        <v>18</v>
+        <v>1540</v>
       </c>
       <c r="H54" s="17">
-        <v>96</v>
+        <v>11763</v>
       </c>
       <c r="I54" s="19">
-        <v>118</v>
+        <v>14256</v>
       </c>
       <c r="J54" s="21">
-        <v>-23</v>
+        <v>-2493</v>
       </c>
       <c r="K54" s="23">
-        <v>8</v>
+        <v>993</v>
       </c>
       <c r="L54" s="25">
-        <v>10</v>
+        <v>1250</v>
       </c>
       <c r="M54" s="27">
-        <v>-2</v>
+        <v>-257</v>
       </c>
       <c r="N54" s="29">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="O54" s="31">
-        <v>19</v>
+        <v>2295</v>
       </c>
       <c r="P54" s="33">
-        <v>-11</v>
+        <v>-1326</v>
       </c>
       <c r="Q54" s="35">
-        <v>24</v>
+        <v>3057</v>
       </c>
       <c r="R54" s="37">
-        <v>54</v>
+        <v>6503</v>
       </c>
       <c r="S54" s="39">
-        <v>-30</v>
+        <v>-3446</v>
       </c>
       <c r="T54" s="41">
-        <v>4</v>
+        <v>527</v>
       </c>
       <c r="U54" s="43">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="V54" s="45">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="W54" s="47">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="X54" s="49">
         <v>0</v>
       </c>
       <c r="Y54" s="51">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Z54" s="53">
-        <v>38</v>
+        <v>4615</v>
       </c>
       <c r="AA54" s="55">
-        <v>19</v>
+        <v>2222</v>
       </c>
       <c r="AB54" s="57">
-        <v>19</v>
+        <v>2393</v>
       </c>
       <c r="AC54" s="59">
-        <v>12</v>
+        <v>1559</v>
       </c>
       <c r="AD54" s="61">
-        <v>16</v>
+        <v>1903</v>
       </c>
       <c r="AE54" s="63">
-        <v>-3</v>
+        <v>-344</v>
       </c>
       <c r="AF54" s="65">
         <v>0</v>
@@ -7644,16 +7644,16 @@
         <v>0</v>
       </c>
       <c r="AI54" s="71">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="AJ54" s="73">
-        <v>7</v>
+        <v>795</v>
       </c>
       <c r="AK54" s="75">
-        <v>-3</v>
+        <v>-372</v>
       </c>
       <c r="AL54" s="77">
-        <v>428</v>
+        <v>51963</v>
       </c>
     </row>
     <row r="55">
@@ -7661,94 +7661,94 @@
         <v>67</v>
       </c>
       <c r="B55" s="5">
-        <v>50</v>
+        <v>6248</v>
       </c>
       <c r="C55" s="7">
-        <v>53</v>
+        <v>6742</v>
       </c>
       <c r="D55" s="9">
-        <v>-4</v>
+        <v>-494</v>
       </c>
       <c r="E55" s="11">
-        <v>233</v>
+        <v>29078</v>
       </c>
       <c r="F55" s="13">
-        <v>212</v>
+        <v>26657</v>
       </c>
       <c r="G55" s="15">
-        <v>21</v>
+        <v>2421</v>
       </c>
       <c r="H55" s="17">
-        <v>120</v>
+        <v>15061</v>
       </c>
       <c r="I55" s="19">
-        <v>134</v>
+        <v>16605</v>
       </c>
       <c r="J55" s="21">
-        <v>-14</v>
+        <v>-1544</v>
       </c>
       <c r="K55" s="23">
-        <v>11</v>
+        <v>1415</v>
       </c>
       <c r="L55" s="25">
-        <v>12</v>
+        <v>1454</v>
       </c>
       <c r="M55" s="27">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="N55" s="29">
-        <v>16</v>
+        <v>1964</v>
       </c>
       <c r="O55" s="31">
-        <v>14</v>
+        <v>1666</v>
       </c>
       <c r="P55" s="33">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="Q55" s="35">
-        <v>15</v>
+        <v>1876</v>
       </c>
       <c r="R55" s="37">
-        <v>46</v>
+        <v>5699</v>
       </c>
       <c r="S55" s="39">
-        <v>-31</v>
+        <v>-3823</v>
       </c>
       <c r="T55" s="41">
-        <v>3</v>
+        <v>398</v>
       </c>
       <c r="U55" s="43">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="V55" s="45">
-        <v>3</v>
+        <v>360</v>
       </c>
       <c r="W55" s="47">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="X55" s="49">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Y55" s="51">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z55" s="53">
-        <v>61</v>
+        <v>7649</v>
       </c>
       <c r="AA55" s="55">
-        <v>50</v>
+        <v>6080</v>
       </c>
       <c r="AB55" s="57">
-        <v>11</v>
+        <v>1569</v>
       </c>
       <c r="AC55" s="59">
-        <v>14</v>
+        <v>1691</v>
       </c>
       <c r="AD55" s="61">
-        <v>13</v>
+        <v>1634</v>
       </c>
       <c r="AE55" s="63">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="AF55" s="65">
         <v>0</v>
@@ -7760,16 +7760,16 @@
         <v>0</v>
       </c>
       <c r="AI55" s="71">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="AJ55" s="73">
-        <v>4</v>
+        <v>537</v>
       </c>
       <c r="AK55" s="75">
-        <v>-3</v>
+        <v>-383</v>
       </c>
       <c r="AL55" s="77">
-        <v>404</v>
+        <v>50541</v>
       </c>
     </row>
     <row r="56">
@@ -7777,94 +7777,94 @@
         <v>68</v>
       </c>
       <c r="B56" s="5">
-        <v>48</v>
+        <v>6003</v>
       </c>
       <c r="C56" s="7">
-        <v>97</v>
+        <v>11991</v>
       </c>
       <c r="D56" s="9">
-        <v>-50</v>
+        <v>-5988</v>
       </c>
       <c r="E56" s="11">
-        <v>220</v>
+        <v>27887</v>
       </c>
       <c r="F56" s="13">
-        <v>326</v>
+        <v>41710</v>
       </c>
       <c r="G56" s="15">
-        <v>-106</v>
+        <v>-13823</v>
       </c>
       <c r="H56" s="17">
-        <v>273</v>
+        <v>35062</v>
       </c>
       <c r="I56" s="19">
-        <v>105</v>
+        <v>13621</v>
       </c>
       <c r="J56" s="21">
-        <v>168</v>
+        <v>21441</v>
       </c>
       <c r="K56" s="23">
-        <v>12</v>
+        <v>1538</v>
       </c>
       <c r="L56" s="25">
-        <v>16</v>
+        <v>2017</v>
       </c>
       <c r="M56" s="27">
-        <v>-4</v>
+        <v>-479</v>
       </c>
       <c r="N56" s="29">
-        <v>27</v>
+        <v>3510</v>
       </c>
       <c r="O56" s="31">
-        <v>6</v>
+        <v>798</v>
       </c>
       <c r="P56" s="33">
-        <v>21</v>
+        <v>2712</v>
       </c>
       <c r="Q56" s="35">
-        <v>64</v>
+        <v>8392</v>
       </c>
       <c r="R56" s="37">
-        <v>59</v>
+        <v>7671</v>
       </c>
       <c r="S56" s="39">
-        <v>6</v>
+        <v>721</v>
       </c>
       <c r="T56" s="41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U56" s="43">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="V56" s="45">
-        <v>-1</v>
+        <v>-119</v>
       </c>
       <c r="W56" s="47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X56" s="49">
         <v>0</v>
       </c>
       <c r="Y56" s="51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z56" s="53">
-        <v>161</v>
+        <v>20462</v>
       </c>
       <c r="AA56" s="55">
-        <v>5</v>
+        <v>673</v>
       </c>
       <c r="AB56" s="57">
-        <v>156</v>
+        <v>19790</v>
       </c>
       <c r="AC56" s="59">
-        <v>9</v>
+        <v>1138</v>
       </c>
       <c r="AD56" s="61">
-        <v>18</v>
+        <v>2333</v>
       </c>
       <c r="AE56" s="63">
-        <v>-9</v>
+        <v>-1195</v>
       </c>
       <c r="AF56" s="65">
         <v>0</v>
@@ -7876,16 +7876,16 @@
         <v>0</v>
       </c>
       <c r="AI56" s="71">
-        <v>10</v>
+        <v>1354</v>
       </c>
       <c r="AJ56" s="73">
-        <v>22</v>
+        <v>2984</v>
       </c>
       <c r="AK56" s="75">
-        <v>-12</v>
+        <v>-1630</v>
       </c>
       <c r="AL56" s="77">
-        <v>552</v>
+        <v>70306</v>
       </c>
     </row>
     <row r="57">
@@ -7893,94 +7893,94 @@
         <v>69</v>
       </c>
       <c r="B57" s="5">
-        <v>51</v>
+        <v>6041</v>
       </c>
       <c r="C57" s="7">
-        <v>75</v>
+        <v>9206</v>
       </c>
       <c r="D57" s="9">
-        <v>-25</v>
+        <v>-3165</v>
       </c>
       <c r="E57" s="11">
-        <v>213</v>
+        <v>25908</v>
       </c>
       <c r="F57" s="13">
-        <v>204</v>
+        <v>24910</v>
       </c>
       <c r="G57" s="15">
-        <v>9</v>
+        <v>998</v>
       </c>
       <c r="H57" s="17">
-        <v>71</v>
+        <v>8722</v>
       </c>
       <c r="I57" s="19">
-        <v>54</v>
+        <v>6381</v>
       </c>
       <c r="J57" s="21">
-        <v>17</v>
+        <v>2341</v>
       </c>
       <c r="K57" s="23">
-        <v>12</v>
+        <v>1534</v>
       </c>
       <c r="L57" s="25">
-        <v>7</v>
+        <v>812</v>
       </c>
       <c r="M57" s="27">
-        <v>6</v>
+        <v>722</v>
       </c>
       <c r="N57" s="29">
-        <v>9</v>
+        <v>1071</v>
       </c>
       <c r="O57" s="31">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="P57" s="33">
-        <v>5</v>
+        <v>651</v>
       </c>
       <c r="Q57" s="35">
-        <v>35</v>
+        <v>4334</v>
       </c>
       <c r="R57" s="37">
-        <v>8</v>
+        <v>948</v>
       </c>
       <c r="S57" s="39">
-        <v>28</v>
+        <v>3386</v>
       </c>
       <c r="T57" s="41">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="U57" s="43">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="V57" s="45">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="W57" s="47">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X57" s="49">
         <v>0</v>
       </c>
       <c r="Y57" s="51">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z57" s="53">
-        <v>10</v>
+        <v>1285</v>
       </c>
       <c r="AA57" s="55">
-        <v>16</v>
+        <v>1796</v>
       </c>
       <c r="AB57" s="57">
-        <v>-5</v>
+        <v>-511</v>
       </c>
       <c r="AC57" s="59">
-        <v>3</v>
+        <v>311</v>
       </c>
       <c r="AD57" s="61">
-        <v>19</v>
+        <v>2326</v>
       </c>
       <c r="AE57" s="63">
-        <v>-17</v>
+        <v>-2015</v>
       </c>
       <c r="AF57" s="65">
         <v>0</v>
@@ -7992,16 +7992,16 @@
         <v>0</v>
       </c>
       <c r="AI57" s="71">
-        <v>5</v>
+        <v>579</v>
       </c>
       <c r="AJ57" s="73">
-        <v>6</v>
+        <v>753</v>
       </c>
       <c r="AK57" s="75">
-        <v>-1</v>
+        <v>-174</v>
       </c>
       <c r="AL57" s="77">
-        <v>339</v>
+        <v>41250</v>
       </c>
     </row>
     <row r="58">
@@ -8009,94 +8009,94 @@
         <v>70</v>
       </c>
       <c r="B58" s="5">
-        <v>40</v>
+        <v>4283</v>
       </c>
       <c r="C58" s="7">
-        <v>52</v>
+        <v>5606</v>
       </c>
       <c r="D58" s="9">
-        <v>-12</v>
+        <v>-1324</v>
       </c>
       <c r="E58" s="11">
-        <v>166</v>
+        <v>18330</v>
       </c>
       <c r="F58" s="13">
-        <v>195</v>
+        <v>21603</v>
       </c>
       <c r="G58" s="15">
-        <v>-29</v>
+        <v>-3273</v>
       </c>
       <c r="H58" s="17">
-        <v>124</v>
+        <v>13807</v>
       </c>
       <c r="I58" s="19">
-        <v>86</v>
+        <v>9536</v>
       </c>
       <c r="J58" s="21">
-        <v>38</v>
+        <v>4271</v>
       </c>
       <c r="K58" s="23">
-        <v>15</v>
+        <v>1719</v>
       </c>
       <c r="L58" s="25">
-        <v>4</v>
+        <v>467</v>
       </c>
       <c r="M58" s="27">
-        <v>11</v>
+        <v>1252</v>
       </c>
       <c r="N58" s="29">
-        <v>11</v>
+        <v>1276</v>
       </c>
       <c r="O58" s="31">
-        <v>10</v>
+        <v>1104</v>
       </c>
       <c r="P58" s="33">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="Q58" s="35">
-        <v>49</v>
+        <v>5424</v>
       </c>
       <c r="R58" s="37">
-        <v>14</v>
+        <v>1547</v>
       </c>
       <c r="S58" s="39">
-        <v>35</v>
+        <v>3877</v>
       </c>
       <c r="T58" s="41">
-        <v>3</v>
+        <v>304</v>
       </c>
       <c r="U58" s="43">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="V58" s="45">
+        <v>131</v>
+      </c>
+      <c r="W58" s="47">
+        <v>0</v>
+      </c>
+      <c r="X58" s="49">
         <v>1</v>
       </c>
-      <c r="W58" s="47">
-        <v>0</v>
-      </c>
-      <c r="X58" s="49">
-        <v>0</v>
-      </c>
       <c r="Y58" s="51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z58" s="53">
-        <v>31</v>
+        <v>3417</v>
       </c>
       <c r="AA58" s="55">
-        <v>54</v>
+        <v>6026</v>
       </c>
       <c r="AB58" s="57">
-        <v>-23</v>
+        <v>-2609</v>
       </c>
       <c r="AC58" s="59">
-        <v>14</v>
+        <v>1667</v>
       </c>
       <c r="AD58" s="61">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="AE58" s="63">
-        <v>13</v>
+        <v>1450</v>
       </c>
       <c r="AF58" s="65">
         <v>0</v>
@@ -8108,16 +8108,16 @@
         <v>0</v>
       </c>
       <c r="AI58" s="71">
-        <v>6</v>
+        <v>627</v>
       </c>
       <c r="AJ58" s="73">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="AK58" s="75">
-        <v>3</v>
+        <v>326</v>
       </c>
       <c r="AL58" s="77">
-        <v>335</v>
+        <v>37046</v>
       </c>
     </row>
     <row r="59">
@@ -8125,115 +8125,115 @@
         <v>71</v>
       </c>
       <c r="B59" s="5">
-        <v>120</v>
+        <v>12937</v>
       </c>
       <c r="C59" s="7">
-        <v>74</v>
+        <v>7867</v>
       </c>
       <c r="D59" s="9">
-        <v>46</v>
+        <v>5070</v>
       </c>
       <c r="E59" s="11">
-        <v>148</v>
+        <v>16021</v>
       </c>
       <c r="F59" s="13">
-        <v>179</v>
+        <v>19511</v>
       </c>
       <c r="G59" s="15">
-        <v>-31</v>
+        <v>-3489</v>
       </c>
       <c r="H59" s="17">
-        <v>55</v>
+        <v>6076</v>
       </c>
       <c r="I59" s="19">
-        <v>70</v>
+        <v>7655</v>
       </c>
       <c r="J59" s="21">
-        <v>-15</v>
+        <v>-1579</v>
       </c>
       <c r="K59" s="23">
-        <v>23</v>
+        <v>2608</v>
       </c>
       <c r="L59" s="25">
-        <v>8</v>
+        <v>909</v>
       </c>
       <c r="M59" s="27">
-        <v>15</v>
+        <v>1699</v>
       </c>
       <c r="N59" s="29">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="O59" s="31">
-        <v>16</v>
+        <v>1789</v>
       </c>
       <c r="P59" s="33">
-        <v>-15</v>
+        <v>-1668</v>
       </c>
       <c r="Q59" s="35">
+        <v>1026</v>
+      </c>
+      <c r="R59" s="37">
+        <v>2049</v>
+      </c>
+      <c r="S59" s="39">
+        <v>-1023</v>
+      </c>
+      <c r="T59" s="41">
+        <v>0</v>
+      </c>
+      <c r="U59" s="43">
+        <v>0</v>
+      </c>
+      <c r="V59" s="45">
+        <v>0</v>
+      </c>
+      <c r="W59" s="47">
         <v>10</v>
       </c>
-      <c r="R59" s="37">
-        <v>19</v>
-      </c>
-      <c r="S59" s="39">
-        <v>-9</v>
-      </c>
-      <c r="T59" s="41">
-        <v>0</v>
-      </c>
-      <c r="U59" s="43">
-        <v>0</v>
-      </c>
-      <c r="V59" s="45">
-        <v>0</v>
-      </c>
-      <c r="W59" s="47">
-        <v>0</v>
-      </c>
       <c r="X59" s="49">
-        <v>16</v>
+        <v>1704</v>
       </c>
       <c r="Y59" s="51">
-        <v>-16</v>
+        <v>-1693</v>
       </c>
       <c r="Z59" s="53">
-        <v>12</v>
+        <v>1225</v>
       </c>
       <c r="AA59" s="55">
-        <v>5</v>
+        <v>571</v>
       </c>
       <c r="AB59" s="57">
-        <v>7</v>
+        <v>655</v>
       </c>
       <c r="AC59" s="59">
-        <v>10</v>
+        <v>1085</v>
       </c>
       <c r="AD59" s="61">
-        <v>5</v>
+        <v>597</v>
       </c>
       <c r="AE59" s="63">
-        <v>4</v>
+        <v>488</v>
       </c>
       <c r="AF59" s="65">
         <v>0</v>
       </c>
       <c r="AG59" s="67">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH59" s="69">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="AI59" s="71">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ59" s="73">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK59" s="75">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL59" s="77">
-        <v>324</v>
+        <v>35072</v>
       </c>
     </row>
     <row r="60">
@@ -8241,58 +8241,58 @@
         <v>72</v>
       </c>
       <c r="B60" s="5">
-        <v>40</v>
+        <v>4215</v>
       </c>
       <c r="C60" s="7">
-        <v>61</v>
+        <v>6314</v>
       </c>
       <c r="D60" s="9">
-        <v>-20</v>
+        <v>-2099</v>
       </c>
       <c r="E60" s="11">
-        <v>197</v>
+        <v>20425</v>
       </c>
       <c r="F60" s="13">
-        <v>199</v>
+        <v>20635</v>
       </c>
       <c r="G60" s="15">
-        <v>-2</v>
+        <v>-211</v>
       </c>
       <c r="H60" s="17">
-        <v>65</v>
+        <v>6761</v>
       </c>
       <c r="I60" s="19">
-        <v>45</v>
+        <v>4626</v>
       </c>
       <c r="J60" s="21">
-        <v>21</v>
+        <v>2135</v>
       </c>
       <c r="K60" s="23">
-        <v>16</v>
+        <v>1703</v>
       </c>
       <c r="L60" s="25">
-        <v>19</v>
+        <v>1944</v>
       </c>
       <c r="M60" s="27">
-        <v>-2</v>
+        <v>-241</v>
       </c>
       <c r="N60" s="29">
-        <v>11</v>
+        <v>1116</v>
       </c>
       <c r="O60" s="31">
-        <v>6</v>
+        <v>627</v>
       </c>
       <c r="P60" s="33">
-        <v>5</v>
+        <v>489</v>
       </c>
       <c r="Q60" s="35">
-        <v>16</v>
+        <v>1630</v>
       </c>
       <c r="R60" s="37">
-        <v>8</v>
+        <v>820</v>
       </c>
       <c r="S60" s="39">
-        <v>8</v>
+        <v>809</v>
       </c>
       <c r="T60" s="41">
         <v>0</v>
@@ -8307,49 +8307,49 @@
         <v>0</v>
       </c>
       <c r="X60" s="49">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y60" s="51">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="Z60" s="53">
-        <v>19</v>
+        <v>1960</v>
       </c>
       <c r="AA60" s="55">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="AB60" s="57">
-        <v>16</v>
+        <v>1629</v>
       </c>
       <c r="AC60" s="59">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="AD60" s="61">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="AE60" s="63">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="AF60" s="65">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG60" s="67">
-        <v>5</v>
+        <v>460</v>
       </c>
       <c r="AH60" s="69">
-        <v>-4</v>
+        <v>-443</v>
       </c>
       <c r="AI60" s="71">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="AJ60" s="73">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="AK60" s="75">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="AL60" s="77">
-        <v>307</v>
+        <v>31814</v>
       </c>
     </row>
     <row r="61">
@@ -8357,115 +8357,115 @@
         <v>73</v>
       </c>
       <c r="B61" s="5">
+        <v>8023</v>
+      </c>
+      <c r="C61" s="7">
+        <v>9534</v>
+      </c>
+      <c r="D61" s="9">
+        <v>-1512</v>
+      </c>
+      <c r="E61" s="11">
+        <v>48941</v>
+      </c>
+      <c r="F61" s="13">
+        <v>42301</v>
+      </c>
+      <c r="G61" s="15">
+        <v>6641</v>
+      </c>
+      <c r="H61" s="17">
+        <v>17414</v>
+      </c>
+      <c r="I61" s="19">
+        <v>23034</v>
+      </c>
+      <c r="J61" s="21">
+        <v>-5620</v>
+      </c>
+      <c r="K61" s="23">
+        <v>3216</v>
+      </c>
+      <c r="L61" s="25">
+        <v>4391</v>
+      </c>
+      <c r="M61" s="27">
+        <v>-1175</v>
+      </c>
+      <c r="N61" s="29">
+        <v>1489</v>
+      </c>
+      <c r="O61" s="31">
+        <v>3171</v>
+      </c>
+      <c r="P61" s="33">
+        <v>-1682</v>
+      </c>
+      <c r="Q61" s="35">
+        <v>4406</v>
+      </c>
+      <c r="R61" s="37">
+        <v>3742</v>
+      </c>
+      <c r="S61" s="39">
+        <v>664</v>
+      </c>
+      <c r="T61" s="41">
+        <v>1</v>
+      </c>
+      <c r="U61" s="43">
+        <v>278</v>
+      </c>
+      <c r="V61" s="45">
+        <v>-277</v>
+      </c>
+      <c r="W61" s="47">
+        <v>451</v>
+      </c>
+      <c r="X61" s="49">
+        <v>382</v>
+      </c>
+      <c r="Y61" s="51">
         <v>69</v>
       </c>
-      <c r="C61" s="7">
-        <v>80</v>
-      </c>
-      <c r="D61" s="9">
-        <v>-12</v>
-      </c>
-      <c r="E61" s="11">
-        <v>430</v>
-      </c>
-      <c r="F61" s="13">
-        <v>373</v>
-      </c>
-      <c r="G61" s="15">
-        <v>57</v>
-      </c>
-      <c r="H61" s="17">
-        <v>148</v>
-      </c>
-      <c r="I61" s="19">
-        <v>198</v>
-      </c>
-      <c r="J61" s="21">
-        <v>-50</v>
-      </c>
-      <c r="K61" s="23">
-        <v>28</v>
-      </c>
-      <c r="L61" s="25">
-        <v>38</v>
-      </c>
-      <c r="M61" s="27">
-        <v>-10</v>
-      </c>
-      <c r="N61" s="29">
-        <v>13</v>
-      </c>
-      <c r="O61" s="31">
-        <v>28</v>
-      </c>
-      <c r="P61" s="33">
-        <v>-15</v>
-      </c>
-      <c r="Q61" s="35">
-        <v>36</v>
-      </c>
-      <c r="R61" s="37">
-        <v>33</v>
-      </c>
-      <c r="S61" s="39">
-        <v>2</v>
-      </c>
-      <c r="T61" s="41">
-        <v>0</v>
-      </c>
-      <c r="U61" s="43">
-        <v>2</v>
-      </c>
-      <c r="V61" s="45">
-        <v>-2</v>
-      </c>
-      <c r="W61" s="47">
-        <v>4</v>
-      </c>
-      <c r="X61" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y61" s="51">
-        <v>1</v>
-      </c>
       <c r="Z61" s="53">
-        <v>52</v>
+        <v>6106</v>
       </c>
       <c r="AA61" s="55">
-        <v>49</v>
+        <v>5942</v>
       </c>
       <c r="AB61" s="57">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="AC61" s="59">
-        <v>14</v>
+        <v>1694</v>
       </c>
       <c r="AD61" s="61">
-        <v>39</v>
+        <v>4530</v>
       </c>
       <c r="AE61" s="63">
-        <v>-25</v>
+        <v>-2836</v>
       </c>
       <c r="AF61" s="65">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AG61" s="67">
-        <v>5</v>
+        <v>597</v>
       </c>
       <c r="AH61" s="69">
-        <v>-5</v>
+        <v>-546</v>
       </c>
       <c r="AI61" s="71">
-        <v>7</v>
+        <v>699</v>
       </c>
       <c r="AJ61" s="73">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="AK61" s="75">
-        <v>5</v>
+        <v>491</v>
       </c>
       <c r="AL61" s="77">
-        <v>653</v>
+        <v>75078</v>
       </c>
     </row>
     <row r="62">
@@ -8473,115 +8473,115 @@
         <v>74</v>
       </c>
       <c r="B62" s="5">
-        <v>49</v>
+        <v>7162</v>
       </c>
       <c r="C62" s="7">
-        <v>59</v>
+        <v>8613</v>
       </c>
       <c r="D62" s="9">
-        <v>-10</v>
+        <v>-1451</v>
       </c>
       <c r="E62" s="11">
-        <v>235</v>
+        <v>34780</v>
       </c>
       <c r="F62" s="13">
-        <v>186</v>
+        <v>27569</v>
       </c>
       <c r="G62" s="15">
-        <v>49</v>
+        <v>7211</v>
       </c>
       <c r="H62" s="17">
-        <v>99</v>
+        <v>14733</v>
       </c>
       <c r="I62" s="19">
-        <v>136</v>
+        <v>20127</v>
       </c>
       <c r="J62" s="21">
-        <v>-37</v>
+        <v>-5394</v>
       </c>
       <c r="K62" s="23">
-        <v>10</v>
+        <v>1601</v>
       </c>
       <c r="L62" s="25">
-        <v>17</v>
+        <v>2578</v>
       </c>
       <c r="M62" s="27">
-        <v>-7</v>
+        <v>-977</v>
       </c>
       <c r="N62" s="29">
-        <v>8</v>
+        <v>1269</v>
       </c>
       <c r="O62" s="31">
-        <v>6</v>
+        <v>882</v>
       </c>
       <c r="P62" s="33">
-        <v>2</v>
+        <v>387</v>
       </c>
       <c r="Q62" s="35">
-        <v>26</v>
+        <v>3913</v>
       </c>
       <c r="R62" s="37">
-        <v>10</v>
+        <v>1531</v>
       </c>
       <c r="S62" s="39">
-        <v>16</v>
+        <v>2382</v>
       </c>
       <c r="T62" s="41">
         <v>0</v>
       </c>
       <c r="U62" s="43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V62" s="45">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="W62" s="47">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="X62" s="49">
-        <v>18</v>
+        <v>2696</v>
       </c>
       <c r="Y62" s="51">
-        <v>-17</v>
+        <v>-2575</v>
       </c>
       <c r="Z62" s="53">
-        <v>47</v>
+        <v>6873</v>
       </c>
       <c r="AA62" s="55">
-        <v>76</v>
+        <v>11232</v>
       </c>
       <c r="AB62" s="57">
-        <v>-30</v>
+        <v>-4359</v>
       </c>
       <c r="AC62" s="59">
-        <v>4</v>
+        <v>584</v>
       </c>
       <c r="AD62" s="61">
-        <v>7</v>
+        <v>1112</v>
       </c>
       <c r="AE62" s="63">
-        <v>-3</v>
+        <v>-528</v>
       </c>
       <c r="AF62" s="65">
-        <v>2</v>
+        <v>372</v>
       </c>
       <c r="AG62" s="67">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="AH62" s="69">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="AI62" s="71">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AJ62" s="73">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="AK62" s="75">
-        <v>-3</v>
+        <v>-365</v>
       </c>
       <c r="AL62" s="77">
-        <v>383</v>
+        <v>56714</v>
       </c>
     </row>
     <row r="63">
@@ -8589,115 +8589,115 @@
         <v>75</v>
       </c>
       <c r="B63" s="5">
-        <v>140</v>
+        <v>22069</v>
       </c>
       <c r="C63" s="7">
-        <v>141</v>
+        <v>22068</v>
       </c>
       <c r="D63" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E63" s="11">
-        <v>395</v>
+        <v>62024</v>
       </c>
       <c r="F63" s="13">
-        <v>386</v>
+        <v>60765</v>
       </c>
       <c r="G63" s="15">
-        <v>9</v>
+        <v>1259</v>
       </c>
       <c r="H63" s="17">
-        <v>160</v>
+        <v>25043</v>
       </c>
       <c r="I63" s="19">
-        <v>163</v>
+        <v>25606</v>
       </c>
       <c r="J63" s="21">
-        <v>-3</v>
+        <v>-563</v>
       </c>
       <c r="K63" s="23">
-        <v>33</v>
+        <v>5144</v>
       </c>
       <c r="L63" s="25">
-        <v>26</v>
+        <v>4105</v>
       </c>
       <c r="M63" s="27">
-        <v>6</v>
+        <v>1039</v>
       </c>
       <c r="N63" s="29">
-        <v>5</v>
+        <v>791</v>
       </c>
       <c r="O63" s="31">
-        <v>24</v>
+        <v>3701</v>
       </c>
       <c r="P63" s="33">
-        <v>-19</v>
+        <v>-2910</v>
       </c>
       <c r="Q63" s="35">
-        <v>45</v>
+        <v>7051</v>
       </c>
       <c r="R63" s="37">
-        <v>34</v>
+        <v>5414</v>
       </c>
       <c r="S63" s="39">
-        <v>11</v>
+        <v>1636</v>
       </c>
       <c r="T63" s="41">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="U63" s="43">
+        <v>311</v>
+      </c>
+      <c r="V63" s="45">
+        <v>-264</v>
+      </c>
+      <c r="W63" s="47">
         <v>2</v>
       </c>
-      <c r="V63" s="45">
-        <v>-2</v>
-      </c>
-      <c r="W63" s="47">
-        <v>0</v>
-      </c>
       <c r="X63" s="49">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="Y63" s="51">
-        <v>-2</v>
+        <v>-254</v>
       </c>
       <c r="Z63" s="53">
-        <v>46</v>
+        <v>7142</v>
       </c>
       <c r="AA63" s="55">
-        <v>25</v>
+        <v>3988</v>
       </c>
       <c r="AB63" s="57">
-        <v>21</v>
+        <v>3154</v>
       </c>
       <c r="AC63" s="59">
-        <v>30</v>
+        <v>4780</v>
       </c>
       <c r="AD63" s="61">
-        <v>44</v>
+        <v>6905</v>
       </c>
       <c r="AE63" s="63">
-        <v>-14</v>
+        <v>-2125</v>
       </c>
       <c r="AF63" s="65">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="AG63" s="67">
-        <v>6</v>
+        <v>926</v>
       </c>
       <c r="AH63" s="69">
-        <v>-5</v>
+        <v>-840</v>
       </c>
       <c r="AI63" s="71">
-        <v>5</v>
+        <v>791</v>
       </c>
       <c r="AJ63" s="73">
-        <v>9</v>
+        <v>1489</v>
       </c>
       <c r="AK63" s="75">
-        <v>-4</v>
+        <v>-697</v>
       </c>
       <c r="AL63" s="77">
-        <v>700</v>
+        <v>109928</v>
       </c>
     </row>
     <row r="64">
@@ -8705,115 +8705,115 @@
         <v>76</v>
       </c>
       <c r="B64" s="6">
-        <v>266</v>
+        <v>44337</v>
       </c>
       <c r="C64" s="8">
-        <v>471</v>
+        <v>78545</v>
       </c>
       <c r="D64" s="10">
-        <v>-205</v>
+        <v>-34208</v>
       </c>
       <c r="E64" s="12">
-        <v>1785</v>
+        <v>303363</v>
       </c>
       <c r="F64" s="14">
-        <v>1589</v>
+        <v>268967</v>
       </c>
       <c r="G64" s="16">
-        <v>196</v>
+        <v>34396</v>
       </c>
       <c r="H64" s="18">
-        <v>646</v>
+        <v>109023</v>
       </c>
       <c r="I64" s="20">
-        <v>668</v>
+        <v>114390</v>
       </c>
       <c r="J64" s="22">
-        <v>-22</v>
+        <v>-5367</v>
       </c>
       <c r="K64" s="24">
-        <v>127</v>
+        <v>21634</v>
       </c>
       <c r="L64" s="26">
-        <v>117</v>
+        <v>20209</v>
       </c>
       <c r="M64" s="28">
-        <v>10</v>
+        <v>1424</v>
       </c>
       <c r="N64" s="30">
-        <v>92</v>
+        <v>15551</v>
       </c>
       <c r="O64" s="32">
-        <v>67</v>
+        <v>11382</v>
       </c>
       <c r="P64" s="34">
-        <v>26</v>
+        <v>4168</v>
       </c>
       <c r="Q64" s="36">
-        <v>132</v>
+        <v>22431</v>
       </c>
       <c r="R64" s="38">
-        <v>142</v>
+        <v>23742</v>
       </c>
       <c r="S64" s="40">
-        <v>-9</v>
+        <v>-1311</v>
       </c>
       <c r="T64" s="42">
-        <v>10</v>
+        <v>1616</v>
       </c>
       <c r="U64" s="44">
-        <v>4</v>
+        <v>707</v>
       </c>
       <c r="V64" s="46">
-        <v>5</v>
+        <v>910</v>
       </c>
       <c r="W64" s="48">
-        <v>34</v>
+        <v>5738</v>
       </c>
       <c r="X64" s="50">
-        <v>3</v>
+        <v>506</v>
       </c>
       <c r="Y64" s="52">
-        <v>31</v>
+        <v>5232</v>
       </c>
       <c r="Z64" s="54">
-        <v>125</v>
+        <v>20814</v>
       </c>
       <c r="AA64" s="56">
-        <v>230</v>
+        <v>39441</v>
       </c>
       <c r="AB64" s="58">
-        <v>-106</v>
+        <v>-18627</v>
       </c>
       <c r="AC64" s="60">
-        <v>98</v>
+        <v>16725</v>
       </c>
       <c r="AD64" s="62">
-        <v>91</v>
+        <v>16014</v>
       </c>
       <c r="AE64" s="64">
-        <v>7</v>
+        <v>711</v>
       </c>
       <c r="AF64" s="66">
-        <v>27</v>
+        <v>4514</v>
       </c>
       <c r="AG64" s="68">
-        <v>14</v>
+        <v>2388</v>
       </c>
       <c r="AH64" s="70">
-        <v>13</v>
+        <v>2126</v>
       </c>
       <c r="AI64" s="72">
-        <v>47</v>
+        <v>7893</v>
       </c>
       <c r="AJ64" s="74">
-        <v>16</v>
+        <v>2714</v>
       </c>
       <c r="AK64" s="76">
-        <v>31</v>
+        <v>5179</v>
       </c>
       <c r="AL64" s="78">
-        <v>2744</v>
+        <v>464616</v>
       </c>
     </row>
   </sheetData>
